--- a/outputs/torch/ssd_mobilenet.xlsx
+++ b/outputs/torch/ssd_mobilenet.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W135"/>
+  <dimension ref="A1:U135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -486,100 +486,90 @@
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>layer_l3</t>
+          <t>I1</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>layer_l4</t>
+          <t>I2</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>I3</t>
         </is>
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>O1</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>O2</t>
         </is>
       </c>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>O3</t>
         </is>
       </c>
       <c r="J1" s="3" t="inlineStr">
         <is>
-          <t>O2</t>
+          <t>k1</t>
         </is>
       </c>
       <c r="K1" s="3" t="inlineStr">
         <is>
-          <t>O3</t>
+          <t>k2</t>
         </is>
       </c>
       <c r="L1" s="3" t="inlineStr">
         <is>
-          <t>k1</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="M1" s="3" t="inlineStr">
         <is>
-          <t>k2</t>
+          <t>s2</t>
         </is>
       </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>p1</t>
         </is>
       </c>
       <c r="O1" s="3" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>p2</t>
         </is>
       </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>SizeI</t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>SizeO</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>SizeI</t>
+          <t>SizeW</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>SizeO</t>
+          <t>OpGemm</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
         <is>
-          <t>SizeW</t>
+          <t>OpElem</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
-        <is>
-          <t>OpGemm</t>
-        </is>
-      </c>
-      <c r="V1" s="3" t="inlineStr">
-        <is>
-          <t>OpElem</t>
-        </is>
-      </c>
-      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>OpActi</t>
         </is>
@@ -591,6 +581,12 @@
           <t>MobileNetV1Base: 1-1</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -603,16 +599,10 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -622,6 +612,12 @@
           <t>Sequential: 2-1</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -634,16 +630,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -653,51 +643,51 @@
           <t>Conv2d_tf: 3-1</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>300</v>
+      </c>
       <c r="F4" t="n">
+        <v>300</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>150</v>
+      </c>
+      <c r="I4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
-        <v>300</v>
-      </c>
-      <c r="H4" t="n">
-        <v>300</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32</v>
-      </c>
-      <c r="J4" t="n">
-        <v>150</v>
-      </c>
       <c r="K4" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="n">
         <v>2</v>
       </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v>270000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>720000</v>
+      </c>
       <c r="R4" t="n">
-        <v>270000</v>
+        <v>864</v>
       </c>
       <c r="S4" t="n">
-        <v>720000</v>
-      </c>
-      <c r="T4" t="n">
-        <v>864</v>
-      </c>
-      <c r="U4" t="n">
         <v>19440000</v>
       </c>
     </row>
@@ -707,28 +697,28 @@
           <t>BiasAdd: 3-2</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>32</v>
+      </c>
+      <c r="E5" t="n">
+        <v>150</v>
+      </c>
       <c r="F5" t="n">
+        <v>150</v>
+      </c>
+      <c r="G5" t="n">
         <v>32</v>
-      </c>
-      <c r="G5" t="n">
-        <v>150</v>
       </c>
       <c r="H5" t="n">
         <v>150</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
-      </c>
-      <c r="J5" t="n">
         <v>150</v>
       </c>
-      <c r="K5" t="n">
-        <v>150</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="P5" t="n">
         <v>720000</v>
       </c>
-      <c r="S5" t="n">
+      <c r="Q5" t="n">
         <v>720000</v>
       </c>
     </row>
@@ -738,31 +728,31 @@
           <t>ReLU6: 3-3</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>150</v>
+      </c>
       <c r="F6" t="n">
+        <v>150</v>
+      </c>
+      <c r="G6" t="n">
         <v>32</v>
-      </c>
-      <c r="G6" t="n">
-        <v>150</v>
       </c>
       <c r="H6" t="n">
         <v>150</v>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
-      </c>
-      <c r="J6" t="n">
         <v>150</v>
       </c>
-      <c r="K6" t="n">
-        <v>150</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="P6" t="n">
         <v>720000</v>
       </c>
-      <c r="S6" t="n">
+      <c r="Q6" t="n">
         <v>720000</v>
       </c>
-      <c r="W6" t="n">
+      <c r="U6" t="n">
         <v>720000</v>
       </c>
     </row>
@@ -772,6 +762,12 @@
           <t>Sequential: 2-2</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
@@ -784,16 +780,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -803,51 +793,51 @@
           <t>Conv2d_tf: 3-4</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>150</v>
+      </c>
       <c r="F8" t="n">
+        <v>150</v>
+      </c>
+      <c r="G8" t="n">
         <v>32</v>
-      </c>
-      <c r="G8" t="n">
-        <v>150</v>
       </c>
       <c r="H8" t="n">
         <v>150</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="J8" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P8" t="n">
+        <v>720000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>720000</v>
+      </c>
       <c r="R8" t="n">
-        <v>720000</v>
+        <v>288</v>
       </c>
       <c r="S8" t="n">
-        <v>720000</v>
-      </c>
-      <c r="T8" t="n">
-        <v>288</v>
-      </c>
-      <c r="U8" t="n">
         <v>6480000</v>
       </c>
     </row>
@@ -857,31 +847,31 @@
           <t>BatchNorm2d: 3-5</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>32</v>
+      </c>
+      <c r="E9" t="n">
+        <v>150</v>
+      </c>
       <c r="F9" t="n">
+        <v>150</v>
+      </c>
+      <c r="G9" t="n">
         <v>32</v>
-      </c>
-      <c r="G9" t="n">
-        <v>150</v>
       </c>
       <c r="H9" t="n">
         <v>150</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
-      </c>
-      <c r="J9" t="n">
         <v>150</v>
       </c>
-      <c r="K9" t="n">
-        <v>150</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="P9" t="n">
         <v>720000</v>
       </c>
-      <c r="S9" t="n">
+      <c r="Q9" t="n">
         <v>720000</v>
       </c>
-      <c r="V9" t="n">
+      <c r="T9" t="n">
         <v>1440000</v>
       </c>
     </row>
@@ -891,31 +881,31 @@
           <t>ReLU6: 3-6</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>150</v>
+      </c>
       <c r="F10" t="n">
+        <v>150</v>
+      </c>
+      <c r="G10" t="n">
         <v>32</v>
-      </c>
-      <c r="G10" t="n">
-        <v>150</v>
       </c>
       <c r="H10" t="n">
         <v>150</v>
       </c>
       <c r="I10" t="n">
-        <v>32</v>
-      </c>
-      <c r="J10" t="n">
         <v>150</v>
       </c>
-      <c r="K10" t="n">
-        <v>150</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="P10" t="n">
         <v>720000</v>
       </c>
-      <c r="S10" t="n">
+      <c r="Q10" t="n">
         <v>720000</v>
       </c>
-      <c r="W10" t="n">
+      <c r="U10" t="n">
         <v>720000</v>
       </c>
     </row>
@@ -925,23 +915,29 @@
           <t>Conv2d: 3-7</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>32</v>
+      </c>
+      <c r="E11" t="n">
+        <v>150</v>
+      </c>
       <c r="F11" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="G11" t="n">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="H11" t="n">
         <v>150</v>
       </c>
       <c r="I11" t="n">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="J11" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
@@ -950,27 +946,21 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>720000</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1440000</v>
       </c>
       <c r="R11" t="n">
-        <v>720000</v>
+        <v>2048</v>
       </c>
       <c r="S11" t="n">
-        <v>1440000</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2048</v>
-      </c>
-      <c r="U11" t="n">
         <v>46080000</v>
       </c>
     </row>
@@ -980,28 +970,28 @@
           <t>BiasAdd: 3-8</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>64</v>
+      </c>
+      <c r="E12" t="n">
+        <v>150</v>
+      </c>
       <c r="F12" t="n">
+        <v>150</v>
+      </c>
+      <c r="G12" t="n">
         <v>64</v>
-      </c>
-      <c r="G12" t="n">
-        <v>150</v>
       </c>
       <c r="H12" t="n">
         <v>150</v>
       </c>
       <c r="I12" t="n">
-        <v>64</v>
-      </c>
-      <c r="J12" t="n">
         <v>150</v>
       </c>
-      <c r="K12" t="n">
-        <v>150</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="P12" t="n">
         <v>1440000</v>
       </c>
-      <c r="S12" t="n">
+      <c r="Q12" t="n">
         <v>1440000</v>
       </c>
     </row>
@@ -1011,31 +1001,31 @@
           <t>ReLU6: 3-9</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>64</v>
+      </c>
+      <c r="E13" t="n">
+        <v>150</v>
+      </c>
       <c r="F13" t="n">
+        <v>150</v>
+      </c>
+      <c r="G13" t="n">
         <v>64</v>
-      </c>
-      <c r="G13" t="n">
-        <v>150</v>
       </c>
       <c r="H13" t="n">
         <v>150</v>
       </c>
       <c r="I13" t="n">
-        <v>64</v>
-      </c>
-      <c r="J13" t="n">
         <v>150</v>
       </c>
-      <c r="K13" t="n">
-        <v>150</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="P13" t="n">
         <v>1440000</v>
       </c>
-      <c r="S13" t="n">
+      <c r="Q13" t="n">
         <v>1440000</v>
       </c>
-      <c r="W13" t="n">
+      <c r="U13" t="n">
         <v>1440000</v>
       </c>
     </row>
@@ -1045,6 +1035,12 @@
           <t>Sequential: 2-3</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
@@ -1057,16 +1053,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,51 +1066,51 @@
           <t>Conv2d_tf: 3-10</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>64</v>
+      </c>
+      <c r="E15" t="n">
+        <v>150</v>
+      </c>
       <c r="F15" t="n">
+        <v>150</v>
+      </c>
+      <c r="G15" t="n">
         <v>64</v>
       </c>
-      <c r="G15" t="n">
-        <v>150</v>
-      </c>
       <c r="H15" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="I15" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J15" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="n">
         <v>2</v>
       </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P15" t="n">
+        <v>1440000</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>360000</v>
+      </c>
       <c r="R15" t="n">
-        <v>1440000</v>
+        <v>576</v>
       </c>
       <c r="S15" t="n">
-        <v>360000</v>
-      </c>
-      <c r="T15" t="n">
-        <v>576</v>
-      </c>
-      <c r="U15" t="n">
         <v>3240000</v>
       </c>
     </row>
@@ -1130,31 +1120,31 @@
           <t>BatchNorm2d: 3-11</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E16" t="n">
+        <v>75</v>
+      </c>
       <c r="F16" t="n">
+        <v>75</v>
+      </c>
+      <c r="G16" t="n">
         <v>64</v>
-      </c>
-      <c r="G16" t="n">
-        <v>75</v>
       </c>
       <c r="H16" t="n">
         <v>75</v>
       </c>
       <c r="I16" t="n">
-        <v>64</v>
-      </c>
-      <c r="J16" t="n">
         <v>75</v>
       </c>
-      <c r="K16" t="n">
-        <v>75</v>
-      </c>
-      <c r="R16" t="n">
+      <c r="P16" t="n">
         <v>360000</v>
       </c>
-      <c r="S16" t="n">
+      <c r="Q16" t="n">
         <v>360000</v>
       </c>
-      <c r="V16" t="n">
+      <c r="T16" t="n">
         <v>720000</v>
       </c>
     </row>
@@ -1164,31 +1154,31 @@
           <t>ReLU6: 3-12</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>75</v>
+      </c>
       <c r="F17" t="n">
+        <v>75</v>
+      </c>
+      <c r="G17" t="n">
         <v>64</v>
-      </c>
-      <c r="G17" t="n">
-        <v>75</v>
       </c>
       <c r="H17" t="n">
         <v>75</v>
       </c>
       <c r="I17" t="n">
-        <v>64</v>
-      </c>
-      <c r="J17" t="n">
         <v>75</v>
       </c>
-      <c r="K17" t="n">
-        <v>75</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="P17" t="n">
         <v>360000</v>
       </c>
-      <c r="S17" t="n">
+      <c r="Q17" t="n">
         <v>360000</v>
       </c>
-      <c r="W17" t="n">
+      <c r="U17" t="n">
         <v>360000</v>
       </c>
     </row>
@@ -1198,23 +1188,29 @@
           <t>Conv2d: 3-13</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>64</v>
+      </c>
+      <c r="E18" t="n">
+        <v>75</v>
+      </c>
       <c r="F18" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G18" t="n">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="H18" t="n">
         <v>75</v>
       </c>
       <c r="I18" t="n">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="J18" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1223,27 +1219,21 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>720000</v>
       </c>
       <c r="R18" t="n">
-        <v>360000</v>
+        <v>8192</v>
       </c>
       <c r="S18" t="n">
-        <v>720000</v>
-      </c>
-      <c r="T18" t="n">
-        <v>8192</v>
-      </c>
-      <c r="U18" t="n">
         <v>46080000</v>
       </c>
     </row>
@@ -1253,28 +1243,28 @@
           <t>BiasAdd: 3-14</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>75</v>
+      </c>
       <c r="F19" t="n">
+        <v>75</v>
+      </c>
+      <c r="G19" t="n">
         <v>128</v>
-      </c>
-      <c r="G19" t="n">
-        <v>75</v>
       </c>
       <c r="H19" t="n">
         <v>75</v>
       </c>
       <c r="I19" t="n">
-        <v>128</v>
-      </c>
-      <c r="J19" t="n">
         <v>75</v>
       </c>
-      <c r="K19" t="n">
-        <v>75</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="P19" t="n">
         <v>720000</v>
       </c>
-      <c r="S19" t="n">
+      <c r="Q19" t="n">
         <v>720000</v>
       </c>
     </row>
@@ -1284,31 +1274,31 @@
           <t>ReLU6: 3-15</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>128</v>
+      </c>
+      <c r="E20" t="n">
+        <v>75</v>
+      </c>
       <c r="F20" t="n">
+        <v>75</v>
+      </c>
+      <c r="G20" t="n">
         <v>128</v>
-      </c>
-      <c r="G20" t="n">
-        <v>75</v>
       </c>
       <c r="H20" t="n">
         <v>75</v>
       </c>
       <c r="I20" t="n">
-        <v>128</v>
-      </c>
-      <c r="J20" t="n">
         <v>75</v>
       </c>
-      <c r="K20" t="n">
-        <v>75</v>
-      </c>
-      <c r="R20" t="n">
+      <c r="P20" t="n">
         <v>720000</v>
       </c>
-      <c r="S20" t="n">
+      <c r="Q20" t="n">
         <v>720000</v>
       </c>
-      <c r="W20" t="n">
+      <c r="U20" t="n">
         <v>720000</v>
       </c>
     </row>
@@ -1318,6 +1308,12 @@
           <t>Sequential: 2-4</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
@@ -1330,16 +1326,10 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1349,51 +1339,51 @@
           <t>Conv2d_tf: 3-16</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>128</v>
+      </c>
+      <c r="E22" t="n">
+        <v>75</v>
+      </c>
       <c r="F22" t="n">
+        <v>75</v>
+      </c>
+      <c r="G22" t="n">
         <v>128</v>
-      </c>
-      <c r="G22" t="n">
-        <v>75</v>
       </c>
       <c r="H22" t="n">
         <v>75</v>
       </c>
       <c r="I22" t="n">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="J22" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P22" t="n">
+        <v>720000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>720000</v>
+      </c>
       <c r="R22" t="n">
-        <v>720000</v>
+        <v>1152</v>
       </c>
       <c r="S22" t="n">
-        <v>720000</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1152</v>
-      </c>
-      <c r="U22" t="n">
         <v>6480000</v>
       </c>
     </row>
@@ -1403,31 +1393,31 @@
           <t>BatchNorm2d: 3-17</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>128</v>
+      </c>
+      <c r="E23" t="n">
+        <v>75</v>
+      </c>
       <c r="F23" t="n">
+        <v>75</v>
+      </c>
+      <c r="G23" t="n">
         <v>128</v>
-      </c>
-      <c r="G23" t="n">
-        <v>75</v>
       </c>
       <c r="H23" t="n">
         <v>75</v>
       </c>
       <c r="I23" t="n">
-        <v>128</v>
-      </c>
-      <c r="J23" t="n">
         <v>75</v>
       </c>
-      <c r="K23" t="n">
-        <v>75</v>
-      </c>
-      <c r="R23" t="n">
+      <c r="P23" t="n">
         <v>720000</v>
       </c>
-      <c r="S23" t="n">
+      <c r="Q23" t="n">
         <v>720000</v>
       </c>
-      <c r="V23" t="n">
+      <c r="T23" t="n">
         <v>1440000</v>
       </c>
     </row>
@@ -1437,31 +1427,31 @@
           <t>ReLU6: 3-18</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>128</v>
+      </c>
+      <c r="E24" t="n">
+        <v>75</v>
+      </c>
       <c r="F24" t="n">
+        <v>75</v>
+      </c>
+      <c r="G24" t="n">
         <v>128</v>
-      </c>
-      <c r="G24" t="n">
-        <v>75</v>
       </c>
       <c r="H24" t="n">
         <v>75</v>
       </c>
       <c r="I24" t="n">
-        <v>128</v>
-      </c>
-      <c r="J24" t="n">
         <v>75</v>
       </c>
-      <c r="K24" t="n">
-        <v>75</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="P24" t="n">
         <v>720000</v>
       </c>
-      <c r="S24" t="n">
+      <c r="Q24" t="n">
         <v>720000</v>
       </c>
-      <c r="W24" t="n">
+      <c r="U24" t="n">
         <v>720000</v>
       </c>
     </row>
@@ -1471,23 +1461,29 @@
           <t>Conv2d: 3-19</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>128</v>
+      </c>
+      <c r="E25" t="n">
+        <v>75</v>
+      </c>
       <c r="F25" t="n">
+        <v>75</v>
+      </c>
+      <c r="G25" t="n">
         <v>128</v>
-      </c>
-      <c r="G25" t="n">
-        <v>75</v>
       </c>
       <c r="H25" t="n">
         <v>75</v>
       </c>
       <c r="I25" t="n">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="J25" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -1496,27 +1492,21 @@
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>720000</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>720000</v>
       </c>
       <c r="R25" t="n">
-        <v>720000</v>
+        <v>16384</v>
       </c>
       <c r="S25" t="n">
-        <v>720000</v>
-      </c>
-      <c r="T25" t="n">
-        <v>16384</v>
-      </c>
-      <c r="U25" t="n">
         <v>92160000</v>
       </c>
     </row>
@@ -1526,28 +1516,28 @@
           <t>BiasAdd: 3-20</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>128</v>
+      </c>
+      <c r="E26" t="n">
+        <v>75</v>
+      </c>
       <c r="F26" t="n">
+        <v>75</v>
+      </c>
+      <c r="G26" t="n">
         <v>128</v>
-      </c>
-      <c r="G26" t="n">
-        <v>75</v>
       </c>
       <c r="H26" t="n">
         <v>75</v>
       </c>
       <c r="I26" t="n">
-        <v>128</v>
-      </c>
-      <c r="J26" t="n">
         <v>75</v>
       </c>
-      <c r="K26" t="n">
-        <v>75</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="P26" t="n">
         <v>720000</v>
       </c>
-      <c r="S26" t="n">
+      <c r="Q26" t="n">
         <v>720000</v>
       </c>
     </row>
@@ -1557,31 +1547,31 @@
           <t>ReLU6: 3-21</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>128</v>
+      </c>
+      <c r="E27" t="n">
+        <v>75</v>
+      </c>
       <c r="F27" t="n">
+        <v>75</v>
+      </c>
+      <c r="G27" t="n">
         <v>128</v>
-      </c>
-      <c r="G27" t="n">
-        <v>75</v>
       </c>
       <c r="H27" t="n">
         <v>75</v>
       </c>
       <c r="I27" t="n">
-        <v>128</v>
-      </c>
-      <c r="J27" t="n">
         <v>75</v>
       </c>
-      <c r="K27" t="n">
-        <v>75</v>
-      </c>
-      <c r="R27" t="n">
+      <c r="P27" t="n">
         <v>720000</v>
       </c>
-      <c r="S27" t="n">
+      <c r="Q27" t="n">
         <v>720000</v>
       </c>
-      <c r="W27" t="n">
+      <c r="U27" t="n">
         <v>720000</v>
       </c>
     </row>
@@ -1591,6 +1581,12 @@
           <t>Sequential: 2-5</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
@@ -1603,16 +1599,10 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1622,51 +1612,51 @@
           <t>Conv2d_tf: 3-22</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>128</v>
+      </c>
+      <c r="E29" t="n">
+        <v>75</v>
+      </c>
       <c r="F29" t="n">
+        <v>75</v>
+      </c>
+      <c r="G29" t="n">
         <v>128</v>
       </c>
-      <c r="G29" t="n">
-        <v>75</v>
-      </c>
       <c r="H29" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I29" t="n">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="J29" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" t="n">
         <v>2</v>
       </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P29" t="n">
+        <v>720000</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>184832</v>
+      </c>
       <c r="R29" t="n">
-        <v>720000</v>
+        <v>1152</v>
       </c>
       <c r="S29" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1152</v>
-      </c>
-      <c r="U29" t="n">
         <v>1663488</v>
       </c>
     </row>
@@ -1676,31 +1666,31 @@
           <t>BatchNorm2d: 3-23</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>128</v>
+      </c>
+      <c r="E30" t="n">
+        <v>38</v>
+      </c>
       <c r="F30" t="n">
+        <v>38</v>
+      </c>
+      <c r="G30" t="n">
         <v>128</v>
-      </c>
-      <c r="G30" t="n">
-        <v>38</v>
       </c>
       <c r="H30" t="n">
         <v>38</v>
       </c>
       <c r="I30" t="n">
-        <v>128</v>
-      </c>
-      <c r="J30" t="n">
         <v>38</v>
       </c>
-      <c r="K30" t="n">
-        <v>38</v>
-      </c>
-      <c r="R30" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S30" t="n">
-        <v>184832</v>
-      </c>
-      <c r="V30" t="n">
+      <c r="P30" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>184832</v>
+      </c>
+      <c r="T30" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -1710,31 +1700,31 @@
           <t>ReLU6: 3-24</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>128</v>
+      </c>
+      <c r="E31" t="n">
+        <v>38</v>
+      </c>
       <c r="F31" t="n">
+        <v>38</v>
+      </c>
+      <c r="G31" t="n">
         <v>128</v>
-      </c>
-      <c r="G31" t="n">
-        <v>38</v>
       </c>
       <c r="H31" t="n">
         <v>38</v>
       </c>
       <c r="I31" t="n">
-        <v>128</v>
-      </c>
-      <c r="J31" t="n">
         <v>38</v>
       </c>
-      <c r="K31" t="n">
-        <v>38</v>
-      </c>
-      <c r="R31" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S31" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W31" t="n">
+      <c r="P31" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U31" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -1744,23 +1734,29 @@
           <t>Conv2d: 3-25</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>128</v>
+      </c>
+      <c r="E32" t="n">
+        <v>38</v>
+      </c>
       <c r="F32" t="n">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="G32" t="n">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="H32" t="n">
         <v>38</v>
       </c>
       <c r="I32" t="n">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="J32" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -1769,27 +1765,21 @@
         <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>369664</v>
       </c>
       <c r="R32" t="n">
-        <v>184832</v>
+        <v>32768</v>
       </c>
       <c r="S32" t="n">
-        <v>369664</v>
-      </c>
-      <c r="T32" t="n">
-        <v>32768</v>
-      </c>
-      <c r="U32" t="n">
         <v>47316992</v>
       </c>
     </row>
@@ -1799,28 +1789,28 @@
           <t>BiasAdd: 3-26</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>256</v>
+      </c>
+      <c r="E33" t="n">
+        <v>38</v>
+      </c>
       <c r="F33" t="n">
+        <v>38</v>
+      </c>
+      <c r="G33" t="n">
         <v>256</v>
-      </c>
-      <c r="G33" t="n">
-        <v>38</v>
       </c>
       <c r="H33" t="n">
         <v>38</v>
       </c>
       <c r="I33" t="n">
-        <v>256</v>
-      </c>
-      <c r="J33" t="n">
         <v>38</v>
       </c>
-      <c r="K33" t="n">
-        <v>38</v>
-      </c>
-      <c r="R33" t="n">
+      <c r="P33" t="n">
         <v>369664</v>
       </c>
-      <c r="S33" t="n">
+      <c r="Q33" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -1830,31 +1820,31 @@
           <t>ReLU6: 3-27</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>256</v>
+      </c>
+      <c r="E34" t="n">
+        <v>38</v>
+      </c>
       <c r="F34" t="n">
+        <v>38</v>
+      </c>
+      <c r="G34" t="n">
         <v>256</v>
-      </c>
-      <c r="G34" t="n">
-        <v>38</v>
       </c>
       <c r="H34" t="n">
         <v>38</v>
       </c>
       <c r="I34" t="n">
-        <v>256</v>
-      </c>
-      <c r="J34" t="n">
         <v>38</v>
       </c>
-      <c r="K34" t="n">
-        <v>38</v>
-      </c>
-      <c r="R34" t="n">
+      <c r="P34" t="n">
         <v>369664</v>
       </c>
-      <c r="S34" t="n">
+      <c r="Q34" t="n">
         <v>369664</v>
       </c>
-      <c r="W34" t="n">
+      <c r="U34" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -1864,6 +1854,12 @@
           <t>Sequential: 2-6</t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
@@ -1876,16 +1872,10 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1895,51 +1885,51 @@
           <t>Conv2d_tf: 3-28</t>
         </is>
       </c>
+      <c r="D36" t="n">
+        <v>256</v>
+      </c>
+      <c r="E36" t="n">
+        <v>38</v>
+      </c>
       <c r="F36" t="n">
+        <v>38</v>
+      </c>
+      <c r="G36" t="n">
         <v>256</v>
-      </c>
-      <c r="G36" t="n">
-        <v>38</v>
       </c>
       <c r="H36" t="n">
         <v>38</v>
       </c>
       <c r="I36" t="n">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="J36" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P36" t="n">
+        <v>369664</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>369664</v>
+      </c>
       <c r="R36" t="n">
-        <v>369664</v>
+        <v>2304</v>
       </c>
       <c r="S36" t="n">
-        <v>369664</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2304</v>
-      </c>
-      <c r="U36" t="n">
         <v>3326976</v>
       </c>
     </row>
@@ -1949,31 +1939,31 @@
           <t>BatchNorm2d: 3-29</t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>256</v>
+      </c>
+      <c r="E37" t="n">
+        <v>38</v>
+      </c>
       <c r="F37" t="n">
+        <v>38</v>
+      </c>
+      <c r="G37" t="n">
         <v>256</v>
-      </c>
-      <c r="G37" t="n">
-        <v>38</v>
       </c>
       <c r="H37" t="n">
         <v>38</v>
       </c>
       <c r="I37" t="n">
-        <v>256</v>
-      </c>
-      <c r="J37" t="n">
         <v>38</v>
       </c>
-      <c r="K37" t="n">
-        <v>38</v>
-      </c>
-      <c r="R37" t="n">
+      <c r="P37" t="n">
         <v>369664</v>
       </c>
-      <c r="S37" t="n">
+      <c r="Q37" t="n">
         <v>369664</v>
       </c>
-      <c r="V37" t="n">
+      <c r="T37" t="n">
         <v>739328</v>
       </c>
     </row>
@@ -1983,31 +1973,31 @@
           <t>ReLU6: 3-30</t>
         </is>
       </c>
+      <c r="D38" t="n">
+        <v>256</v>
+      </c>
+      <c r="E38" t="n">
+        <v>38</v>
+      </c>
       <c r="F38" t="n">
+        <v>38</v>
+      </c>
+      <c r="G38" t="n">
         <v>256</v>
-      </c>
-      <c r="G38" t="n">
-        <v>38</v>
       </c>
       <c r="H38" t="n">
         <v>38</v>
       </c>
       <c r="I38" t="n">
-        <v>256</v>
-      </c>
-      <c r="J38" t="n">
         <v>38</v>
       </c>
-      <c r="K38" t="n">
-        <v>38</v>
-      </c>
-      <c r="R38" t="n">
+      <c r="P38" t="n">
         <v>369664</v>
       </c>
-      <c r="S38" t="n">
+      <c r="Q38" t="n">
         <v>369664</v>
       </c>
-      <c r="W38" t="n">
+      <c r="U38" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -2017,23 +2007,29 @@
           <t>Conv2d: 3-31</t>
         </is>
       </c>
+      <c r="D39" t="n">
+        <v>256</v>
+      </c>
+      <c r="E39" t="n">
+        <v>38</v>
+      </c>
       <c r="F39" t="n">
+        <v>38</v>
+      </c>
+      <c r="G39" t="n">
         <v>256</v>
-      </c>
-      <c r="G39" t="n">
-        <v>38</v>
       </c>
       <c r="H39" t="n">
         <v>38</v>
       </c>
       <c r="I39" t="n">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="J39" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -2042,27 +2038,21 @@
         <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>369664</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>369664</v>
       </c>
       <c r="R39" t="n">
-        <v>369664</v>
+        <v>65536</v>
       </c>
       <c r="S39" t="n">
-        <v>369664</v>
-      </c>
-      <c r="T39" t="n">
-        <v>65536</v>
-      </c>
-      <c r="U39" t="n">
         <v>94633984</v>
       </c>
     </row>
@@ -2072,28 +2062,28 @@
           <t>BiasAdd: 3-32</t>
         </is>
       </c>
+      <c r="D40" t="n">
+        <v>256</v>
+      </c>
+      <c r="E40" t="n">
+        <v>38</v>
+      </c>
       <c r="F40" t="n">
+        <v>38</v>
+      </c>
+      <c r="G40" t="n">
         <v>256</v>
-      </c>
-      <c r="G40" t="n">
-        <v>38</v>
       </c>
       <c r="H40" t="n">
         <v>38</v>
       </c>
       <c r="I40" t="n">
-        <v>256</v>
-      </c>
-      <c r="J40" t="n">
         <v>38</v>
       </c>
-      <c r="K40" t="n">
-        <v>38</v>
-      </c>
-      <c r="R40" t="n">
+      <c r="P40" t="n">
         <v>369664</v>
       </c>
-      <c r="S40" t="n">
+      <c r="Q40" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -2103,31 +2093,31 @@
           <t>ReLU6: 3-33</t>
         </is>
       </c>
+      <c r="D41" t="n">
+        <v>256</v>
+      </c>
+      <c r="E41" t="n">
+        <v>38</v>
+      </c>
       <c r="F41" t="n">
+        <v>38</v>
+      </c>
+      <c r="G41" t="n">
         <v>256</v>
-      </c>
-      <c r="G41" t="n">
-        <v>38</v>
       </c>
       <c r="H41" t="n">
         <v>38</v>
       </c>
       <c r="I41" t="n">
-        <v>256</v>
-      </c>
-      <c r="J41" t="n">
         <v>38</v>
       </c>
-      <c r="K41" t="n">
-        <v>38</v>
-      </c>
-      <c r="R41" t="n">
+      <c r="P41" t="n">
         <v>369664</v>
       </c>
-      <c r="S41" t="n">
+      <c r="Q41" t="n">
         <v>369664</v>
       </c>
-      <c r="W41" t="n">
+      <c r="U41" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -2137,6 +2127,12 @@
           <t>Sequential: 2-7</t>
         </is>
       </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
@@ -2149,16 +2145,10 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2168,51 +2158,51 @@
           <t>Conv2d_tf: 3-34</t>
         </is>
       </c>
+      <c r="D43" t="n">
+        <v>256</v>
+      </c>
+      <c r="E43" t="n">
+        <v>38</v>
+      </c>
       <c r="F43" t="n">
+        <v>38</v>
+      </c>
+      <c r="G43" t="n">
         <v>256</v>
       </c>
-      <c r="G43" t="n">
-        <v>38</v>
-      </c>
       <c r="H43" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I43" t="n">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="J43" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="n">
         <v>2</v>
       </c>
-      <c r="O43" t="n">
-        <v>2</v>
-      </c>
-      <c r="P43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P43" t="n">
+        <v>369664</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>92416</v>
+      </c>
       <c r="R43" t="n">
-        <v>369664</v>
+        <v>2304</v>
       </c>
       <c r="S43" t="n">
-        <v>92416</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2304</v>
-      </c>
-      <c r="U43" t="n">
         <v>831744</v>
       </c>
     </row>
@@ -2222,31 +2212,31 @@
           <t>BatchNorm2d: 3-35</t>
         </is>
       </c>
+      <c r="D44" t="n">
+        <v>256</v>
+      </c>
+      <c r="E44" t="n">
+        <v>19</v>
+      </c>
       <c r="F44" t="n">
+        <v>19</v>
+      </c>
+      <c r="G44" t="n">
         <v>256</v>
       </c>
-      <c r="G44" t="n">
-        <v>19</v>
-      </c>
       <c r="H44" t="n">
         <v>19</v>
       </c>
       <c r="I44" t="n">
-        <v>256</v>
-      </c>
-      <c r="J44" t="n">
-        <v>19</v>
-      </c>
-      <c r="K44" t="n">
-        <v>19</v>
-      </c>
-      <c r="R44" t="n">
+        <v>19</v>
+      </c>
+      <c r="P44" t="n">
         <v>92416</v>
       </c>
-      <c r="S44" t="n">
+      <c r="Q44" t="n">
         <v>92416</v>
       </c>
-      <c r="V44" t="n">
+      <c r="T44" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -2256,31 +2246,31 @@
           <t>ReLU6: 3-36</t>
         </is>
       </c>
+      <c r="D45" t="n">
+        <v>256</v>
+      </c>
+      <c r="E45" t="n">
+        <v>19</v>
+      </c>
       <c r="F45" t="n">
+        <v>19</v>
+      </c>
+      <c r="G45" t="n">
         <v>256</v>
       </c>
-      <c r="G45" t="n">
-        <v>19</v>
-      </c>
       <c r="H45" t="n">
         <v>19</v>
       </c>
       <c r="I45" t="n">
-        <v>256</v>
-      </c>
-      <c r="J45" t="n">
-        <v>19</v>
-      </c>
-      <c r="K45" t="n">
-        <v>19</v>
-      </c>
-      <c r="R45" t="n">
+        <v>19</v>
+      </c>
+      <c r="P45" t="n">
         <v>92416</v>
       </c>
-      <c r="S45" t="n">
+      <c r="Q45" t="n">
         <v>92416</v>
       </c>
-      <c r="W45" t="n">
+      <c r="U45" t="n">
         <v>92416</v>
       </c>
     </row>
@@ -2290,23 +2280,29 @@
           <t>Conv2d: 3-37</t>
         </is>
       </c>
+      <c r="D46" t="n">
+        <v>256</v>
+      </c>
+      <c r="E46" t="n">
+        <v>19</v>
+      </c>
       <c r="F46" t="n">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="G46" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H46" t="n">
         <v>19</v>
       </c>
       <c r="I46" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J46" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
@@ -2315,27 +2311,21 @@
         <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>92416</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="R46" t="n">
-        <v>92416</v>
+        <v>131072</v>
       </c>
       <c r="S46" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T46" t="n">
-        <v>131072</v>
-      </c>
-      <c r="U46" t="n">
         <v>47316992</v>
       </c>
     </row>
@@ -2345,28 +2335,28 @@
           <t>BiasAdd: 3-38</t>
         </is>
       </c>
+      <c r="D47" t="n">
+        <v>512</v>
+      </c>
+      <c r="E47" t="n">
+        <v>19</v>
+      </c>
       <c r="F47" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G47" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H47" t="n">
         <v>19</v>
       </c>
       <c r="I47" t="n">
-        <v>512</v>
-      </c>
-      <c r="J47" t="n">
-        <v>19</v>
-      </c>
-      <c r="K47" t="n">
-        <v>19</v>
-      </c>
-      <c r="R47" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S47" t="n">
+        <v>19</v>
+      </c>
+      <c r="P47" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q47" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -2376,31 +2366,31 @@
           <t>ReLU6: 3-39</t>
         </is>
       </c>
+      <c r="D48" t="n">
+        <v>512</v>
+      </c>
+      <c r="E48" t="n">
+        <v>19</v>
+      </c>
       <c r="F48" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G48" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H48" t="n">
         <v>19</v>
       </c>
       <c r="I48" t="n">
-        <v>512</v>
-      </c>
-      <c r="J48" t="n">
-        <v>19</v>
-      </c>
-      <c r="K48" t="n">
-        <v>19</v>
-      </c>
-      <c r="R48" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S48" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W48" t="n">
+        <v>19</v>
+      </c>
+      <c r="P48" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U48" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -2410,6 +2400,12 @@
           <t>Sequential: 2-8</t>
         </is>
       </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
@@ -2422,16 +2418,10 @@
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2441,51 +2431,51 @@
           <t>Conv2d_tf: 3-40</t>
         </is>
       </c>
+      <c r="D50" t="n">
+        <v>512</v>
+      </c>
+      <c r="E50" t="n">
+        <v>19</v>
+      </c>
       <c r="F50" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G50" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H50" t="n">
         <v>19</v>
       </c>
       <c r="I50" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J50" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P50" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>184832</v>
+      </c>
       <c r="R50" t="n">
-        <v>184832</v>
+        <v>4608</v>
       </c>
       <c r="S50" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T50" t="n">
-        <v>4608</v>
-      </c>
-      <c r="U50" t="n">
         <v>1663488</v>
       </c>
     </row>
@@ -2495,31 +2485,31 @@
           <t>BatchNorm2d: 3-41</t>
         </is>
       </c>
+      <c r="D51" t="n">
+        <v>512</v>
+      </c>
+      <c r="E51" t="n">
+        <v>19</v>
+      </c>
       <c r="F51" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G51" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H51" t="n">
         <v>19</v>
       </c>
       <c r="I51" t="n">
-        <v>512</v>
-      </c>
-      <c r="J51" t="n">
-        <v>19</v>
-      </c>
-      <c r="K51" t="n">
-        <v>19</v>
-      </c>
-      <c r="R51" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S51" t="n">
-        <v>184832</v>
-      </c>
-      <c r="V51" t="n">
+        <v>19</v>
+      </c>
+      <c r="P51" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>184832</v>
+      </c>
+      <c r="T51" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -2529,31 +2519,31 @@
           <t>ReLU6: 3-42</t>
         </is>
       </c>
+      <c r="D52" t="n">
+        <v>512</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19</v>
+      </c>
       <c r="F52" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G52" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H52" t="n">
         <v>19</v>
       </c>
       <c r="I52" t="n">
-        <v>512</v>
-      </c>
-      <c r="J52" t="n">
-        <v>19</v>
-      </c>
-      <c r="K52" t="n">
-        <v>19</v>
-      </c>
-      <c r="R52" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S52" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W52" t="n">
+        <v>19</v>
+      </c>
+      <c r="P52" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U52" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -2563,23 +2553,29 @@
           <t>Conv2d: 3-43</t>
         </is>
       </c>
+      <c r="D53" t="n">
+        <v>512</v>
+      </c>
+      <c r="E53" t="n">
+        <v>19</v>
+      </c>
       <c r="F53" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G53" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H53" t="n">
         <v>19</v>
       </c>
       <c r="I53" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J53" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
@@ -2588,27 +2584,21 @@
         <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="R53" t="n">
-        <v>184832</v>
+        <v>262144</v>
       </c>
       <c r="S53" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T53" t="n">
-        <v>262144</v>
-      </c>
-      <c r="U53" t="n">
         <v>94633984</v>
       </c>
     </row>
@@ -2618,28 +2608,28 @@
           <t>BiasAdd: 3-44</t>
         </is>
       </c>
+      <c r="D54" t="n">
+        <v>512</v>
+      </c>
+      <c r="E54" t="n">
+        <v>19</v>
+      </c>
       <c r="F54" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G54" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H54" t="n">
         <v>19</v>
       </c>
       <c r="I54" t="n">
-        <v>512</v>
-      </c>
-      <c r="J54" t="n">
-        <v>19</v>
-      </c>
-      <c r="K54" t="n">
-        <v>19</v>
-      </c>
-      <c r="R54" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S54" t="n">
+        <v>19</v>
+      </c>
+      <c r="P54" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q54" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -2649,31 +2639,31 @@
           <t>ReLU6: 3-45</t>
         </is>
       </c>
+      <c r="D55" t="n">
+        <v>512</v>
+      </c>
+      <c r="E55" t="n">
+        <v>19</v>
+      </c>
       <c r="F55" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G55" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H55" t="n">
         <v>19</v>
       </c>
       <c r="I55" t="n">
-        <v>512</v>
-      </c>
-      <c r="J55" t="n">
-        <v>19</v>
-      </c>
-      <c r="K55" t="n">
-        <v>19</v>
-      </c>
-      <c r="R55" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S55" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W55" t="n">
+        <v>19</v>
+      </c>
+      <c r="P55" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U55" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -2683,6 +2673,12 @@
           <t>Sequential: 2-9</t>
         </is>
       </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
@@ -2695,16 +2691,10 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2714,51 +2704,51 @@
           <t>Conv2d_tf: 3-46</t>
         </is>
       </c>
+      <c r="D57" t="n">
+        <v>512</v>
+      </c>
+      <c r="E57" t="n">
+        <v>19</v>
+      </c>
       <c r="F57" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G57" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H57" t="n">
         <v>19</v>
       </c>
       <c r="I57" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J57" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P57" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P57" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>184832</v>
+      </c>
       <c r="R57" t="n">
-        <v>184832</v>
+        <v>4608</v>
       </c>
       <c r="S57" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T57" t="n">
-        <v>4608</v>
-      </c>
-      <c r="U57" t="n">
         <v>1663488</v>
       </c>
     </row>
@@ -2768,31 +2758,31 @@
           <t>BatchNorm2d: 3-47</t>
         </is>
       </c>
+      <c r="D58" t="n">
+        <v>512</v>
+      </c>
+      <c r="E58" t="n">
+        <v>19</v>
+      </c>
       <c r="F58" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G58" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H58" t="n">
         <v>19</v>
       </c>
       <c r="I58" t="n">
-        <v>512</v>
-      </c>
-      <c r="J58" t="n">
-        <v>19</v>
-      </c>
-      <c r="K58" t="n">
-        <v>19</v>
-      </c>
-      <c r="R58" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S58" t="n">
-        <v>184832</v>
-      </c>
-      <c r="V58" t="n">
+        <v>19</v>
+      </c>
+      <c r="P58" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>184832</v>
+      </c>
+      <c r="T58" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -2802,31 +2792,31 @@
           <t>ReLU6: 3-48</t>
         </is>
       </c>
+      <c r="D59" t="n">
+        <v>512</v>
+      </c>
+      <c r="E59" t="n">
+        <v>19</v>
+      </c>
       <c r="F59" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G59" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H59" t="n">
         <v>19</v>
       </c>
       <c r="I59" t="n">
-        <v>512</v>
-      </c>
-      <c r="J59" t="n">
-        <v>19</v>
-      </c>
-      <c r="K59" t="n">
-        <v>19</v>
-      </c>
-      <c r="R59" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S59" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W59" t="n">
+        <v>19</v>
+      </c>
+      <c r="P59" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U59" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -2836,23 +2826,29 @@
           <t>Conv2d: 3-49</t>
         </is>
       </c>
+      <c r="D60" t="n">
+        <v>512</v>
+      </c>
+      <c r="E60" t="n">
+        <v>19</v>
+      </c>
       <c r="F60" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G60" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H60" t="n">
         <v>19</v>
       </c>
       <c r="I60" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J60" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
         <v>1</v>
@@ -2861,27 +2857,21 @@
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="R60" t="n">
-        <v>184832</v>
+        <v>262144</v>
       </c>
       <c r="S60" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T60" t="n">
-        <v>262144</v>
-      </c>
-      <c r="U60" t="n">
         <v>94633984</v>
       </c>
     </row>
@@ -2891,28 +2881,28 @@
           <t>BiasAdd: 3-50</t>
         </is>
       </c>
+      <c r="D61" t="n">
+        <v>512</v>
+      </c>
+      <c r="E61" t="n">
+        <v>19</v>
+      </c>
       <c r="F61" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G61" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H61" t="n">
         <v>19</v>
       </c>
       <c r="I61" t="n">
-        <v>512</v>
-      </c>
-      <c r="J61" t="n">
-        <v>19</v>
-      </c>
-      <c r="K61" t="n">
-        <v>19</v>
-      </c>
-      <c r="R61" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S61" t="n">
+        <v>19</v>
+      </c>
+      <c r="P61" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q61" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -2922,31 +2912,31 @@
           <t>ReLU6: 3-51</t>
         </is>
       </c>
+      <c r="D62" t="n">
+        <v>512</v>
+      </c>
+      <c r="E62" t="n">
+        <v>19</v>
+      </c>
       <c r="F62" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G62" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H62" t="n">
         <v>19</v>
       </c>
       <c r="I62" t="n">
-        <v>512</v>
-      </c>
-      <c r="J62" t="n">
-        <v>19</v>
-      </c>
-      <c r="K62" t="n">
-        <v>19</v>
-      </c>
-      <c r="R62" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S62" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W62" t="n">
+        <v>19</v>
+      </c>
+      <c r="P62" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U62" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -2956,6 +2946,12 @@
           <t>Sequential: 2-10</t>
         </is>
       </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
@@ -2968,16 +2964,10 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2987,51 +2977,51 @@
           <t>Conv2d_tf: 3-52</t>
         </is>
       </c>
+      <c r="D64" t="n">
+        <v>512</v>
+      </c>
+      <c r="E64" t="n">
+        <v>19</v>
+      </c>
       <c r="F64" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G64" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H64" t="n">
         <v>19</v>
       </c>
       <c r="I64" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J64" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
-      </c>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="N64" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P64" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>184832</v>
+      </c>
       <c r="R64" t="n">
-        <v>184832</v>
+        <v>4608</v>
       </c>
       <c r="S64" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T64" t="n">
-        <v>4608</v>
-      </c>
-      <c r="U64" t="n">
         <v>1663488</v>
       </c>
     </row>
@@ -3041,31 +3031,31 @@
           <t>BatchNorm2d: 3-53</t>
         </is>
       </c>
+      <c r="D65" t="n">
+        <v>512</v>
+      </c>
+      <c r="E65" t="n">
+        <v>19</v>
+      </c>
       <c r="F65" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G65" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H65" t="n">
         <v>19</v>
       </c>
       <c r="I65" t="n">
-        <v>512</v>
-      </c>
-      <c r="J65" t="n">
-        <v>19</v>
-      </c>
-      <c r="K65" t="n">
-        <v>19</v>
-      </c>
-      <c r="R65" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S65" t="n">
-        <v>184832</v>
-      </c>
-      <c r="V65" t="n">
+        <v>19</v>
+      </c>
+      <c r="P65" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>184832</v>
+      </c>
+      <c r="T65" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -3075,31 +3065,31 @@
           <t>ReLU6: 3-54</t>
         </is>
       </c>
+      <c r="D66" t="n">
+        <v>512</v>
+      </c>
+      <c r="E66" t="n">
+        <v>19</v>
+      </c>
       <c r="F66" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G66" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H66" t="n">
         <v>19</v>
       </c>
       <c r="I66" t="n">
-        <v>512</v>
-      </c>
-      <c r="J66" t="n">
-        <v>19</v>
-      </c>
-      <c r="K66" t="n">
-        <v>19</v>
-      </c>
-      <c r="R66" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S66" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W66" t="n">
+        <v>19</v>
+      </c>
+      <c r="P66" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U66" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -3109,23 +3099,29 @@
           <t>Conv2d: 3-55</t>
         </is>
       </c>
+      <c r="D67" t="n">
+        <v>512</v>
+      </c>
+      <c r="E67" t="n">
+        <v>19</v>
+      </c>
       <c r="F67" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G67" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H67" t="n">
         <v>19</v>
       </c>
       <c r="I67" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J67" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>1</v>
@@ -3134,27 +3130,21 @@
         <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="R67" t="n">
-        <v>184832</v>
+        <v>262144</v>
       </c>
       <c r="S67" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T67" t="n">
-        <v>262144</v>
-      </c>
-      <c r="U67" t="n">
         <v>94633984</v>
       </c>
     </row>
@@ -3164,28 +3154,28 @@
           <t>BiasAdd: 3-56</t>
         </is>
       </c>
+      <c r="D68" t="n">
+        <v>512</v>
+      </c>
+      <c r="E68" t="n">
+        <v>19</v>
+      </c>
       <c r="F68" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G68" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H68" t="n">
         <v>19</v>
       </c>
       <c r="I68" t="n">
-        <v>512</v>
-      </c>
-      <c r="J68" t="n">
-        <v>19</v>
-      </c>
-      <c r="K68" t="n">
-        <v>19</v>
-      </c>
-      <c r="R68" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S68" t="n">
+        <v>19</v>
+      </c>
+      <c r="P68" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q68" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -3195,31 +3185,31 @@
           <t>ReLU6: 3-57</t>
         </is>
       </c>
+      <c r="D69" t="n">
+        <v>512</v>
+      </c>
+      <c r="E69" t="n">
+        <v>19</v>
+      </c>
       <c r="F69" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G69" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H69" t="n">
         <v>19</v>
       </c>
       <c r="I69" t="n">
-        <v>512</v>
-      </c>
-      <c r="J69" t="n">
-        <v>19</v>
-      </c>
-      <c r="K69" t="n">
-        <v>19</v>
-      </c>
-      <c r="R69" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S69" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W69" t="n">
+        <v>19</v>
+      </c>
+      <c r="P69" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U69" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -3229,6 +3219,12 @@
           <t>Sequential: 2-11</t>
         </is>
       </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
@@ -3241,16 +3237,10 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0</v>
-      </c>
-      <c r="S70" t="n">
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3260,51 +3250,51 @@
           <t>Conv2d_tf: 3-58</t>
         </is>
       </c>
+      <c r="D71" t="n">
+        <v>512</v>
+      </c>
+      <c r="E71" t="n">
+        <v>19</v>
+      </c>
       <c r="F71" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G71" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H71" t="n">
         <v>19</v>
       </c>
       <c r="I71" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J71" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
-        <v>3</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="N71" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P71" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>184832</v>
+      </c>
       <c r="R71" t="n">
-        <v>184832</v>
+        <v>4608</v>
       </c>
       <c r="S71" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T71" t="n">
-        <v>4608</v>
-      </c>
-      <c r="U71" t="n">
         <v>1663488</v>
       </c>
     </row>
@@ -3314,31 +3304,31 @@
           <t>BatchNorm2d: 3-59</t>
         </is>
       </c>
+      <c r="D72" t="n">
+        <v>512</v>
+      </c>
+      <c r="E72" t="n">
+        <v>19</v>
+      </c>
       <c r="F72" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G72" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H72" t="n">
         <v>19</v>
       </c>
       <c r="I72" t="n">
-        <v>512</v>
-      </c>
-      <c r="J72" t="n">
-        <v>19</v>
-      </c>
-      <c r="K72" t="n">
-        <v>19</v>
-      </c>
-      <c r="R72" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S72" t="n">
-        <v>184832</v>
-      </c>
-      <c r="V72" t="n">
+        <v>19</v>
+      </c>
+      <c r="P72" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>184832</v>
+      </c>
+      <c r="T72" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -3348,31 +3338,31 @@
           <t>ReLU6: 3-60</t>
         </is>
       </c>
+      <c r="D73" t="n">
+        <v>512</v>
+      </c>
+      <c r="E73" t="n">
+        <v>19</v>
+      </c>
       <c r="F73" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G73" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H73" t="n">
         <v>19</v>
       </c>
       <c r="I73" t="n">
-        <v>512</v>
-      </c>
-      <c r="J73" t="n">
-        <v>19</v>
-      </c>
-      <c r="K73" t="n">
-        <v>19</v>
-      </c>
-      <c r="R73" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S73" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W73" t="n">
+        <v>19</v>
+      </c>
+      <c r="P73" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U73" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -3382,23 +3372,29 @@
           <t>Conv2d: 3-61</t>
         </is>
       </c>
+      <c r="D74" t="n">
+        <v>512</v>
+      </c>
+      <c r="E74" t="n">
+        <v>19</v>
+      </c>
       <c r="F74" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G74" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H74" t="n">
         <v>19</v>
       </c>
       <c r="I74" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J74" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -3407,27 +3403,21 @@
         <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="R74" t="n">
-        <v>184832</v>
+        <v>262144</v>
       </c>
       <c r="S74" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T74" t="n">
-        <v>262144</v>
-      </c>
-      <c r="U74" t="n">
         <v>94633984</v>
       </c>
     </row>
@@ -3437,28 +3427,28 @@
           <t>BiasAdd: 3-62</t>
         </is>
       </c>
+      <c r="D75" t="n">
+        <v>512</v>
+      </c>
+      <c r="E75" t="n">
+        <v>19</v>
+      </c>
       <c r="F75" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G75" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H75" t="n">
         <v>19</v>
       </c>
       <c r="I75" t="n">
-        <v>512</v>
-      </c>
-      <c r="J75" t="n">
-        <v>19</v>
-      </c>
-      <c r="K75" t="n">
-        <v>19</v>
-      </c>
-      <c r="R75" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S75" t="n">
+        <v>19</v>
+      </c>
+      <c r="P75" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q75" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -3468,31 +3458,31 @@
           <t>ReLU6: 3-63</t>
         </is>
       </c>
+      <c r="D76" t="n">
+        <v>512</v>
+      </c>
+      <c r="E76" t="n">
+        <v>19</v>
+      </c>
       <c r="F76" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G76" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H76" t="n">
         <v>19</v>
       </c>
       <c r="I76" t="n">
-        <v>512</v>
-      </c>
-      <c r="J76" t="n">
-        <v>19</v>
-      </c>
-      <c r="K76" t="n">
-        <v>19</v>
-      </c>
-      <c r="R76" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S76" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W76" t="n">
+        <v>19</v>
+      </c>
+      <c r="P76" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U76" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -3502,6 +3492,12 @@
           <t>Sequential: 2-12</t>
         </is>
       </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
@@ -3514,16 +3510,10 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R77" t="n">
-        <v>0</v>
-      </c>
-      <c r="S77" t="n">
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3533,51 +3523,51 @@
           <t>Conv2d_tf: 3-64</t>
         </is>
       </c>
+      <c r="D78" t="n">
+        <v>512</v>
+      </c>
+      <c r="E78" t="n">
+        <v>19</v>
+      </c>
       <c r="F78" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G78" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H78" t="n">
         <v>19</v>
       </c>
       <c r="I78" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J78" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1</v>
-      </c>
-      <c r="P78" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="N78" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P78" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>184832</v>
+      </c>
       <c r="R78" t="n">
-        <v>184832</v>
+        <v>4608</v>
       </c>
       <c r="S78" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T78" t="n">
-        <v>4608</v>
-      </c>
-      <c r="U78" t="n">
         <v>1663488</v>
       </c>
     </row>
@@ -3587,31 +3577,31 @@
           <t>BatchNorm2d: 3-65</t>
         </is>
       </c>
+      <c r="D79" t="n">
+        <v>512</v>
+      </c>
+      <c r="E79" t="n">
+        <v>19</v>
+      </c>
       <c r="F79" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G79" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H79" t="n">
         <v>19</v>
       </c>
       <c r="I79" t="n">
-        <v>512</v>
-      </c>
-      <c r="J79" t="n">
-        <v>19</v>
-      </c>
-      <c r="K79" t="n">
-        <v>19</v>
-      </c>
-      <c r="R79" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S79" t="n">
-        <v>184832</v>
-      </c>
-      <c r="V79" t="n">
+        <v>19</v>
+      </c>
+      <c r="P79" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>184832</v>
+      </c>
+      <c r="T79" t="n">
         <v>369664</v>
       </c>
     </row>
@@ -3621,31 +3611,31 @@
           <t>ReLU6: 3-66</t>
         </is>
       </c>
+      <c r="D80" t="n">
+        <v>512</v>
+      </c>
+      <c r="E80" t="n">
+        <v>19</v>
+      </c>
       <c r="F80" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G80" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H80" t="n">
         <v>19</v>
       </c>
       <c r="I80" t="n">
-        <v>512</v>
-      </c>
-      <c r="J80" t="n">
-        <v>19</v>
-      </c>
-      <c r="K80" t="n">
-        <v>19</v>
-      </c>
-      <c r="R80" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S80" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W80" t="n">
+        <v>19</v>
+      </c>
+      <c r="P80" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U80" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -3655,23 +3645,29 @@
           <t>Conv2d: 3-67</t>
         </is>
       </c>
+      <c r="D81" t="n">
+        <v>512</v>
+      </c>
+      <c r="E81" t="n">
+        <v>19</v>
+      </c>
       <c r="F81" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G81" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H81" t="n">
         <v>19</v>
       </c>
       <c r="I81" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="J81" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
         <v>1</v>
@@ -3680,27 +3676,21 @@
         <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="R81" t="n">
-        <v>184832</v>
+        <v>262144</v>
       </c>
       <c r="S81" t="n">
-        <v>184832</v>
-      </c>
-      <c r="T81" t="n">
-        <v>262144</v>
-      </c>
-      <c r="U81" t="n">
         <v>94633984</v>
       </c>
     </row>
@@ -3710,28 +3700,28 @@
           <t>BiasAdd: 3-68</t>
         </is>
       </c>
+      <c r="D82" t="n">
+        <v>512</v>
+      </c>
+      <c r="E82" t="n">
+        <v>19</v>
+      </c>
       <c r="F82" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G82" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H82" t="n">
         <v>19</v>
       </c>
       <c r="I82" t="n">
-        <v>512</v>
-      </c>
-      <c r="J82" t="n">
-        <v>19</v>
-      </c>
-      <c r="K82" t="n">
-        <v>19</v>
-      </c>
-      <c r="R82" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S82" t="n">
+        <v>19</v>
+      </c>
+      <c r="P82" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q82" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -3741,31 +3731,31 @@
           <t>ReLU6: 3-69</t>
         </is>
       </c>
+      <c r="D83" t="n">
+        <v>512</v>
+      </c>
+      <c r="E83" t="n">
+        <v>19</v>
+      </c>
       <c r="F83" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G83" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H83" t="n">
         <v>19</v>
       </c>
       <c r="I83" t="n">
-        <v>512</v>
-      </c>
-      <c r="J83" t="n">
-        <v>19</v>
-      </c>
-      <c r="K83" t="n">
-        <v>19</v>
-      </c>
-      <c r="R83" t="n">
-        <v>184832</v>
-      </c>
-      <c r="S83" t="n">
-        <v>184832</v>
-      </c>
-      <c r="W83" t="n">
+        <v>19</v>
+      </c>
+      <c r="P83" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>184832</v>
+      </c>
+      <c r="U83" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -3775,6 +3765,12 @@
           <t>Sequential: 2-13</t>
         </is>
       </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
@@ -3787,16 +3783,10 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" t="n">
-        <v>0</v>
-      </c>
-      <c r="S84" t="n">
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3806,51 +3796,51 @@
           <t>Conv2d_tf: 3-70</t>
         </is>
       </c>
+      <c r="D85" t="n">
+        <v>512</v>
+      </c>
+      <c r="E85" t="n">
+        <v>19</v>
+      </c>
       <c r="F85" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G85" t="n">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="H85" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I85" t="n">
-        <v>512</v>
+        <v>10</v>
       </c>
       <c r="J85" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>3</v>
-      </c>
-      <c r="N85" t="n">
         <v>2</v>
       </c>
-      <c r="O85" t="n">
-        <v>2</v>
-      </c>
-      <c r="P85" t="inlineStr">
+      <c r="N85" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P85" t="n">
+        <v>184832</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>51200</v>
+      </c>
       <c r="R85" t="n">
-        <v>184832</v>
+        <v>4608</v>
       </c>
       <c r="S85" t="n">
-        <v>51200</v>
-      </c>
-      <c r="T85" t="n">
-        <v>4608</v>
-      </c>
-      <c r="U85" t="n">
         <v>460800</v>
       </c>
     </row>
@@ -3860,31 +3850,31 @@
           <t>BatchNorm2d: 3-71</t>
         </is>
       </c>
+      <c r="D86" t="n">
+        <v>512</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10</v>
+      </c>
       <c r="F86" t="n">
-        <v>512</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="H86" t="n">
         <v>10</v>
       </c>
       <c r="I86" t="n">
-        <v>512</v>
-      </c>
-      <c r="J86" t="n">
-        <v>10</v>
-      </c>
-      <c r="K86" t="n">
-        <v>10</v>
-      </c>
-      <c r="R86" t="n">
+        <v>10</v>
+      </c>
+      <c r="P86" t="n">
         <v>51200</v>
       </c>
-      <c r="S86" t="n">
+      <c r="Q86" t="n">
         <v>51200</v>
       </c>
-      <c r="V86" t="n">
+      <c r="T86" t="n">
         <v>102400</v>
       </c>
     </row>
@@ -3894,31 +3884,31 @@
           <t>ReLU6: 3-72</t>
         </is>
       </c>
+      <c r="D87" t="n">
+        <v>512</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10</v>
+      </c>
       <c r="F87" t="n">
-        <v>512</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="H87" t="n">
         <v>10</v>
       </c>
       <c r="I87" t="n">
-        <v>512</v>
-      </c>
-      <c r="J87" t="n">
-        <v>10</v>
-      </c>
-      <c r="K87" t="n">
-        <v>10</v>
-      </c>
-      <c r="R87" t="n">
+        <v>10</v>
+      </c>
+      <c r="P87" t="n">
         <v>51200</v>
       </c>
-      <c r="S87" t="n">
+      <c r="Q87" t="n">
         <v>51200</v>
       </c>
-      <c r="W87" t="n">
+      <c r="U87" t="n">
         <v>51200</v>
       </c>
     </row>
@@ -3928,23 +3918,29 @@
           <t>Conv2d: 3-73</t>
         </is>
       </c>
+      <c r="D88" t="n">
+        <v>512</v>
+      </c>
+      <c r="E88" t="n">
+        <v>10</v>
+      </c>
       <c r="F88" t="n">
-        <v>512</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>10</v>
+        <v>1024</v>
       </c>
       <c r="H88" t="n">
         <v>10</v>
       </c>
       <c r="I88" t="n">
-        <v>1024</v>
+        <v>10</v>
       </c>
       <c r="J88" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>1</v>
@@ -3953,27 +3949,21 @@
         <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>51200</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>102400</v>
       </c>
       <c r="R88" t="n">
-        <v>51200</v>
+        <v>524288</v>
       </c>
       <c r="S88" t="n">
-        <v>102400</v>
-      </c>
-      <c r="T88" t="n">
-        <v>524288</v>
-      </c>
-      <c r="U88" t="n">
         <v>52428800</v>
       </c>
     </row>
@@ -3983,28 +3973,28 @@
           <t>BiasAdd: 3-74</t>
         </is>
       </c>
+      <c r="D89" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E89" t="n">
+        <v>10</v>
+      </c>
       <c r="F89" t="n">
+        <v>10</v>
+      </c>
+      <c r="G89" t="n">
         <v>1024</v>
       </c>
-      <c r="G89" t="n">
-        <v>10</v>
-      </c>
       <c r="H89" t="n">
         <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>1024</v>
-      </c>
-      <c r="J89" t="n">
-        <v>10</v>
-      </c>
-      <c r="K89" t="n">
-        <v>10</v>
-      </c>
-      <c r="R89" t="n">
+        <v>10</v>
+      </c>
+      <c r="P89" t="n">
         <v>102400</v>
       </c>
-      <c r="S89" t="n">
+      <c r="Q89" t="n">
         <v>102400</v>
       </c>
     </row>
@@ -4014,31 +4004,31 @@
           <t>ReLU6: 3-75</t>
         </is>
       </c>
+      <c r="D90" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E90" t="n">
+        <v>10</v>
+      </c>
       <c r="F90" t="n">
+        <v>10</v>
+      </c>
+      <c r="G90" t="n">
         <v>1024</v>
       </c>
-      <c r="G90" t="n">
-        <v>10</v>
-      </c>
       <c r="H90" t="n">
         <v>10</v>
       </c>
       <c r="I90" t="n">
-        <v>1024</v>
-      </c>
-      <c r="J90" t="n">
-        <v>10</v>
-      </c>
-      <c r="K90" t="n">
-        <v>10</v>
-      </c>
-      <c r="R90" t="n">
+        <v>10</v>
+      </c>
+      <c r="P90" t="n">
         <v>102400</v>
       </c>
-      <c r="S90" t="n">
+      <c r="Q90" t="n">
         <v>102400</v>
       </c>
-      <c r="W90" t="n">
+      <c r="U90" t="n">
         <v>102400</v>
       </c>
     </row>
@@ -4048,6 +4038,12 @@
           <t>Sequential: 2-14</t>
         </is>
       </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
       <c r="F91" t="n">
         <v>0</v>
       </c>
@@ -4060,16 +4056,10 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0</v>
-      </c>
-      <c r="S91" t="n">
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4079,51 +4069,51 @@
           <t>Conv2d_tf: 3-76</t>
         </is>
       </c>
+      <c r="D92" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E92" t="n">
+        <v>10</v>
+      </c>
       <c r="F92" t="n">
+        <v>10</v>
+      </c>
+      <c r="G92" t="n">
         <v>1024</v>
       </c>
-      <c r="G92" t="n">
-        <v>10</v>
-      </c>
       <c r="H92" t="n">
         <v>10</v>
       </c>
       <c r="I92" t="n">
-        <v>1024</v>
+        <v>10</v>
       </c>
       <c r="J92" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>3</v>
-      </c>
-      <c r="N92" t="n">
-        <v>1</v>
-      </c>
-      <c r="O92" t="n">
-        <v>1</v>
-      </c>
-      <c r="P92" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P92" t="n">
+        <v>102400</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>102400</v>
+      </c>
       <c r="R92" t="n">
-        <v>102400</v>
+        <v>9216</v>
       </c>
       <c r="S92" t="n">
-        <v>102400</v>
-      </c>
-      <c r="T92" t="n">
-        <v>9216</v>
-      </c>
-      <c r="U92" t="n">
         <v>921600</v>
       </c>
     </row>
@@ -4133,31 +4123,31 @@
           <t>BatchNorm2d: 3-77</t>
         </is>
       </c>
+      <c r="D93" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E93" t="n">
+        <v>10</v>
+      </c>
       <c r="F93" t="n">
+        <v>10</v>
+      </c>
+      <c r="G93" t="n">
         <v>1024</v>
       </c>
-      <c r="G93" t="n">
-        <v>10</v>
-      </c>
       <c r="H93" t="n">
         <v>10</v>
       </c>
       <c r="I93" t="n">
-        <v>1024</v>
-      </c>
-      <c r="J93" t="n">
-        <v>10</v>
-      </c>
-      <c r="K93" t="n">
-        <v>10</v>
-      </c>
-      <c r="R93" t="n">
+        <v>10</v>
+      </c>
+      <c r="P93" t="n">
         <v>102400</v>
       </c>
-      <c r="S93" t="n">
+      <c r="Q93" t="n">
         <v>102400</v>
       </c>
-      <c r="V93" t="n">
+      <c r="T93" t="n">
         <v>204800</v>
       </c>
     </row>
@@ -4167,31 +4157,31 @@
           <t>ReLU6: 3-78</t>
         </is>
       </c>
+      <c r="D94" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E94" t="n">
+        <v>10</v>
+      </c>
       <c r="F94" t="n">
+        <v>10</v>
+      </c>
+      <c r="G94" t="n">
         <v>1024</v>
       </c>
-      <c r="G94" t="n">
-        <v>10</v>
-      </c>
       <c r="H94" t="n">
         <v>10</v>
       </c>
       <c r="I94" t="n">
-        <v>1024</v>
-      </c>
-      <c r="J94" t="n">
-        <v>10</v>
-      </c>
-      <c r="K94" t="n">
-        <v>10</v>
-      </c>
-      <c r="R94" t="n">
+        <v>10</v>
+      </c>
+      <c r="P94" t="n">
         <v>102400</v>
       </c>
-      <c r="S94" t="n">
+      <c r="Q94" t="n">
         <v>102400</v>
       </c>
-      <c r="W94" t="n">
+      <c r="U94" t="n">
         <v>102400</v>
       </c>
     </row>
@@ -4201,23 +4191,29 @@
           <t>Conv2d: 3-79</t>
         </is>
       </c>
+      <c r="D95" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E95" t="n">
+        <v>10</v>
+      </c>
       <c r="F95" t="n">
+        <v>10</v>
+      </c>
+      <c r="G95" t="n">
         <v>1024</v>
       </c>
-      <c r="G95" t="n">
-        <v>10</v>
-      </c>
       <c r="H95" t="n">
         <v>10</v>
       </c>
       <c r="I95" t="n">
-        <v>1024</v>
+        <v>10</v>
       </c>
       <c r="J95" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
         <v>1</v>
@@ -4226,27 +4222,21 @@
         <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>102400</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>102400</v>
       </c>
       <c r="R95" t="n">
-        <v>102400</v>
+        <v>1048576</v>
       </c>
       <c r="S95" t="n">
-        <v>102400</v>
-      </c>
-      <c r="T95" t="n">
-        <v>1048576</v>
-      </c>
-      <c r="U95" t="n">
         <v>104857600</v>
       </c>
     </row>
@@ -4256,28 +4246,28 @@
           <t>BiasAdd: 3-80</t>
         </is>
       </c>
+      <c r="D96" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E96" t="n">
+        <v>10</v>
+      </c>
       <c r="F96" t="n">
+        <v>10</v>
+      </c>
+      <c r="G96" t="n">
         <v>1024</v>
       </c>
-      <c r="G96" t="n">
-        <v>10</v>
-      </c>
       <c r="H96" t="n">
         <v>10</v>
       </c>
       <c r="I96" t="n">
-        <v>1024</v>
-      </c>
-      <c r="J96" t="n">
-        <v>10</v>
-      </c>
-      <c r="K96" t="n">
-        <v>10</v>
-      </c>
-      <c r="R96" t="n">
+        <v>10</v>
+      </c>
+      <c r="P96" t="n">
         <v>102400</v>
       </c>
-      <c r="S96" t="n">
+      <c r="Q96" t="n">
         <v>102400</v>
       </c>
     </row>
@@ -4287,31 +4277,31 @@
           <t>ReLU6: 3-81</t>
         </is>
       </c>
+      <c r="D97" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E97" t="n">
+        <v>10</v>
+      </c>
       <c r="F97" t="n">
+        <v>10</v>
+      </c>
+      <c r="G97" t="n">
         <v>1024</v>
       </c>
-      <c r="G97" t="n">
-        <v>10</v>
-      </c>
       <c r="H97" t="n">
         <v>10</v>
       </c>
       <c r="I97" t="n">
-        <v>1024</v>
-      </c>
-      <c r="J97" t="n">
-        <v>10</v>
-      </c>
-      <c r="K97" t="n">
-        <v>10</v>
-      </c>
-      <c r="R97" t="n">
+        <v>10</v>
+      </c>
+      <c r="P97" t="n">
         <v>102400</v>
       </c>
-      <c r="S97" t="n">
+      <c r="Q97" t="n">
         <v>102400</v>
       </c>
-      <c r="W97" t="n">
+      <c r="U97" t="n">
         <v>102400</v>
       </c>
     </row>
@@ -4321,6 +4311,12 @@
           <t>Block: 2-15</t>
         </is>
       </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
@@ -4333,16 +4329,10 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0</v>
-      </c>
-      <c r="S98" t="n">
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4352,23 +4342,29 @@
           <t>Conv2d: 3-82</t>
         </is>
       </c>
+      <c r="D99" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E99" t="n">
+        <v>10</v>
+      </c>
       <c r="F99" t="n">
-        <v>1024</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="H99" t="n">
         <v>10</v>
       </c>
       <c r="I99" t="n">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="J99" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>1</v>
@@ -4377,27 +4373,21 @@
         <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>102400</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>25600</v>
       </c>
       <c r="R99" t="n">
-        <v>102400</v>
+        <v>262400</v>
       </c>
       <c r="S99" t="n">
-        <v>25600</v>
-      </c>
-      <c r="T99" t="n">
-        <v>262400</v>
-      </c>
-      <c r="U99" t="n">
         <v>26240000</v>
       </c>
     </row>
@@ -4407,31 +4397,31 @@
           <t>ReLU6: 3-83</t>
         </is>
       </c>
+      <c r="D100" t="n">
+        <v>256</v>
+      </c>
+      <c r="E100" t="n">
+        <v>10</v>
+      </c>
       <c r="F100" t="n">
+        <v>10</v>
+      </c>
+      <c r="G100" t="n">
         <v>256</v>
       </c>
-      <c r="G100" t="n">
-        <v>10</v>
-      </c>
       <c r="H100" t="n">
         <v>10</v>
       </c>
       <c r="I100" t="n">
-        <v>256</v>
-      </c>
-      <c r="J100" t="n">
-        <v>10</v>
-      </c>
-      <c r="K100" t="n">
-        <v>10</v>
-      </c>
-      <c r="R100" t="n">
+        <v>10</v>
+      </c>
+      <c r="P100" t="n">
         <v>25600</v>
       </c>
-      <c r="S100" t="n">
+      <c r="Q100" t="n">
         <v>25600</v>
       </c>
-      <c r="W100" t="n">
+      <c r="U100" t="n">
         <v>25600</v>
       </c>
     </row>
@@ -4441,51 +4431,51 @@
           <t>Conv2d_tf: 3-84</t>
         </is>
       </c>
+      <c r="D101" t="n">
+        <v>256</v>
+      </c>
+      <c r="E101" t="n">
+        <v>10</v>
+      </c>
       <c r="F101" t="n">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>10</v>
+        <v>512</v>
       </c>
       <c r="H101" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I101" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="J101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M101" t="n">
-        <v>3</v>
-      </c>
-      <c r="N101" t="n">
         <v>2</v>
       </c>
-      <c r="O101" t="n">
-        <v>2</v>
-      </c>
-      <c r="P101" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P101" t="n">
+        <v>25600</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>12800</v>
+      </c>
       <c r="R101" t="n">
-        <v>25600</v>
+        <v>1180160</v>
       </c>
       <c r="S101" t="n">
-        <v>12800</v>
-      </c>
-      <c r="T101" t="n">
-        <v>1180160</v>
-      </c>
-      <c r="U101" t="n">
         <v>29504000</v>
       </c>
     </row>
@@ -4495,31 +4485,31 @@
           <t>ReLU6: 3-85</t>
         </is>
       </c>
+      <c r="D102" t="n">
+        <v>512</v>
+      </c>
+      <c r="E102" t="n">
+        <v>5</v>
+      </c>
       <c r="F102" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="G102" t="n">
-        <v>5</v>
+        <v>512</v>
       </c>
       <c r="H102" t="n">
         <v>5</v>
       </c>
       <c r="I102" t="n">
-        <v>512</v>
-      </c>
-      <c r="J102" t="n">
         <v>5</v>
       </c>
-      <c r="K102" t="n">
-        <v>5</v>
-      </c>
-      <c r="R102" t="n">
+      <c r="P102" t="n">
         <v>12800</v>
       </c>
-      <c r="S102" t="n">
+      <c r="Q102" t="n">
         <v>12800</v>
       </c>
-      <c r="W102" t="n">
+      <c r="U102" t="n">
         <v>12800</v>
       </c>
     </row>
@@ -4529,6 +4519,12 @@
           <t>Block: 2-16</t>
         </is>
       </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
@@ -4541,16 +4537,10 @@
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0</v>
-      </c>
-      <c r="S103" t="n">
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4560,23 +4550,29 @@
           <t>Conv2d: 3-86</t>
         </is>
       </c>
+      <c r="D104" t="n">
+        <v>512</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5</v>
+      </c>
       <c r="F104" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="H104" t="n">
         <v>5</v>
       </c>
       <c r="I104" t="n">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="J104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
         <v>1</v>
@@ -4585,27 +4581,21 @@
         <v>1</v>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="R104" t="n">
-        <v>12800</v>
+        <v>65664</v>
       </c>
       <c r="S104" t="n">
-        <v>3200</v>
-      </c>
-      <c r="T104" t="n">
-        <v>65664</v>
-      </c>
-      <c r="U104" t="n">
         <v>1641600</v>
       </c>
     </row>
@@ -4615,31 +4605,31 @@
           <t>ReLU6: 3-87</t>
         </is>
       </c>
+      <c r="D105" t="n">
+        <v>128</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5</v>
+      </c>
       <c r="F105" t="n">
+        <v>5</v>
+      </c>
+      <c r="G105" t="n">
         <v>128</v>
-      </c>
-      <c r="G105" t="n">
-        <v>5</v>
       </c>
       <c r="H105" t="n">
         <v>5</v>
       </c>
       <c r="I105" t="n">
-        <v>128</v>
-      </c>
-      <c r="J105" t="n">
         <v>5</v>
       </c>
-      <c r="K105" t="n">
-        <v>5</v>
-      </c>
-      <c r="R105" t="n">
+      <c r="P105" t="n">
         <v>3200</v>
       </c>
-      <c r="S105" t="n">
+      <c r="Q105" t="n">
         <v>3200</v>
       </c>
-      <c r="W105" t="n">
+      <c r="U105" t="n">
         <v>3200</v>
       </c>
     </row>
@@ -4649,17 +4639,23 @@
           <t>Conv2d_tf: 3-88</t>
         </is>
       </c>
+      <c r="D106" t="n">
+        <v>128</v>
+      </c>
+      <c r="E106" t="n">
+        <v>5</v>
+      </c>
       <c r="F106" t="n">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>256</v>
       </c>
       <c r="H106" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I106" t="n">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
         <v>3</v>
@@ -4668,32 +4664,26 @@
         <v>3</v>
       </c>
       <c r="L106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M106" t="n">
-        <v>3</v>
-      </c>
-      <c r="N106" t="n">
         <v>2</v>
       </c>
-      <c r="O106" t="n">
-        <v>2</v>
-      </c>
-      <c r="P106" t="inlineStr">
+      <c r="N106" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P106" t="n">
+        <v>3200</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2304</v>
+      </c>
       <c r="R106" t="n">
-        <v>3200</v>
+        <v>295168</v>
       </c>
       <c r="S106" t="n">
-        <v>2304</v>
-      </c>
-      <c r="T106" t="n">
-        <v>295168</v>
-      </c>
-      <c r="U106" t="n">
         <v>2656512</v>
       </c>
     </row>
@@ -4703,31 +4693,31 @@
           <t>ReLU6: 3-89</t>
         </is>
       </c>
+      <c r="D107" t="n">
+        <v>256</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3</v>
+      </c>
       <c r="F107" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" t="n">
         <v>256</v>
-      </c>
-      <c r="G107" t="n">
-        <v>3</v>
       </c>
       <c r="H107" t="n">
         <v>3</v>
       </c>
       <c r="I107" t="n">
-        <v>256</v>
-      </c>
-      <c r="J107" t="n">
         <v>3</v>
       </c>
-      <c r="K107" t="n">
-        <v>3</v>
-      </c>
-      <c r="R107" t="n">
+      <c r="P107" t="n">
         <v>2304</v>
       </c>
-      <c r="S107" t="n">
+      <c r="Q107" t="n">
         <v>2304</v>
       </c>
-      <c r="W107" t="n">
+      <c r="U107" t="n">
         <v>2304</v>
       </c>
     </row>
@@ -4737,6 +4727,12 @@
           <t>Block: 2-17</t>
         </is>
       </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
@@ -4749,16 +4745,10 @@
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0</v>
-      </c>
-      <c r="S108" t="n">
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4768,23 +4758,29 @@
           <t>Conv2d: 3-90</t>
         </is>
       </c>
+      <c r="D109" t="n">
+        <v>256</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3</v>
+      </c>
       <c r="F109" t="n">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="H109" t="n">
         <v>3</v>
       </c>
       <c r="I109" t="n">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L109" t="n">
         <v>1</v>
@@ -4793,27 +4789,21 @@
         <v>1</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
+        <v>1152</v>
       </c>
       <c r="R109" t="n">
-        <v>2304</v>
+        <v>32896</v>
       </c>
       <c r="S109" t="n">
-        <v>1152</v>
-      </c>
-      <c r="T109" t="n">
-        <v>32896</v>
-      </c>
-      <c r="U109" t="n">
         <v>296064</v>
       </c>
     </row>
@@ -4823,31 +4813,31 @@
           <t>ReLU6: 3-91</t>
         </is>
       </c>
+      <c r="D110" t="n">
+        <v>128</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3</v>
+      </c>
       <c r="F110" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" t="n">
         <v>128</v>
-      </c>
-      <c r="G110" t="n">
-        <v>3</v>
       </c>
       <c r="H110" t="n">
         <v>3</v>
       </c>
       <c r="I110" t="n">
-        <v>128</v>
-      </c>
-      <c r="J110" t="n">
         <v>3</v>
       </c>
-      <c r="K110" t="n">
-        <v>3</v>
-      </c>
-      <c r="R110" t="n">
+      <c r="P110" t="n">
         <v>1152</v>
       </c>
-      <c r="S110" t="n">
+      <c r="Q110" t="n">
         <v>1152</v>
       </c>
-      <c r="W110" t="n">
+      <c r="U110" t="n">
         <v>1152</v>
       </c>
     </row>
@@ -4857,51 +4847,51 @@
           <t>Conv2d_tf: 3-92</t>
         </is>
       </c>
+      <c r="D111" t="n">
+        <v>128</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
       <c r="F111" t="n">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="G111" t="n">
+        <v>256</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" t="n">
         <v>3</v>
       </c>
-      <c r="H111" t="n">
+      <c r="K111" t="n">
         <v>3</v>
       </c>
-      <c r="I111" t="n">
-        <v>256</v>
-      </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>2</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>2</v>
       </c>
-      <c r="L111" t="n">
-        <v>3</v>
-      </c>
-      <c r="M111" t="n">
-        <v>3</v>
-      </c>
-      <c r="N111" t="n">
-        <v>2</v>
-      </c>
-      <c r="O111" t="n">
-        <v>2</v>
-      </c>
-      <c r="P111" t="inlineStr">
+      <c r="N111" t="inlineStr">
         <is>
           <t>SAME</t>
         </is>
       </c>
+      <c r="P111" t="n">
+        <v>1152</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1024</v>
+      </c>
       <c r="R111" t="n">
-        <v>1152</v>
+        <v>295168</v>
       </c>
       <c r="S111" t="n">
-        <v>1024</v>
-      </c>
-      <c r="T111" t="n">
-        <v>295168</v>
-      </c>
-      <c r="U111" t="n">
         <v>1180672</v>
       </c>
     </row>
@@ -4911,31 +4901,31 @@
           <t>ReLU6: 3-93</t>
         </is>
       </c>
+      <c r="D112" t="n">
+        <v>256</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2</v>
+      </c>
       <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
         <v>256</v>
-      </c>
-      <c r="G112" t="n">
-        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>256</v>
-      </c>
-      <c r="J112" t="n">
         <v>2</v>
       </c>
-      <c r="K112" t="n">
-        <v>2</v>
-      </c>
-      <c r="R112" t="n">
+      <c r="P112" t="n">
         <v>1024</v>
       </c>
-      <c r="S112" t="n">
+      <c r="Q112" t="n">
         <v>1024</v>
       </c>
-      <c r="W112" t="n">
+      <c r="U112" t="n">
         <v>1024</v>
       </c>
     </row>
@@ -4945,6 +4935,12 @@
           <t>Block: 2-18</t>
         </is>
       </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
       <c r="F113" t="n">
         <v>0</v>
       </c>
@@ -4957,16 +4953,10 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0</v>
-      </c>
-      <c r="S113" t="n">
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4976,23 +4966,29 @@
           <t>Conv2d: 3-94</t>
         </is>
       </c>
+      <c r="D114" t="n">
+        <v>256</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2</v>
+      </c>
       <c r="F114" t="n">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="H114" t="n">
         <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L114" t="n">
         <v>1</v>
@@ -5001,27 +4997,21 @@
         <v>1</v>
       </c>
       <c r="N114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="Q114" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="R114" t="n">
-        <v>1024</v>
+        <v>16448</v>
       </c>
       <c r="S114" t="n">
-        <v>256</v>
-      </c>
-      <c r="T114" t="n">
-        <v>16448</v>
-      </c>
-      <c r="U114" t="n">
         <v>65792</v>
       </c>
     </row>
@@ -5031,31 +5021,31 @@
           <t>ReLU6: 3-95</t>
         </is>
       </c>
+      <c r="D115" t="n">
+        <v>64</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
       <c r="F115" t="n">
+        <v>2</v>
+      </c>
+      <c r="G115" t="n">
         <v>64</v>
-      </c>
-      <c r="G115" t="n">
-        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>64</v>
-      </c>
-      <c r="J115" t="n">
         <v>2</v>
       </c>
-      <c r="K115" t="n">
-        <v>2</v>
-      </c>
-      <c r="R115" t="n">
+      <c r="P115" t="n">
         <v>256</v>
       </c>
-      <c r="S115" t="n">
+      <c r="Q115" t="n">
         <v>256</v>
       </c>
-      <c r="W115" t="n">
+      <c r="U115" t="n">
         <v>256</v>
       </c>
     </row>
@@ -5065,51 +5055,51 @@
           <t>Conv2d_tf: 3-96</t>
         </is>
       </c>
+      <c r="D116" t="n">
+        <v>64</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2</v>
+      </c>
       <c r="F116" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="G116" t="n">
+        <v>128</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3</v>
+      </c>
+      <c r="L116" t="n">
         <v>2</v>
       </c>
-      <c r="H116" t="n">
+      <c r="M116" t="n">
         <v>2</v>
       </c>
-      <c r="I116" t="n">
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>256</v>
+      </c>
+      <c r="Q116" t="n">
         <v>128</v>
       </c>
-      <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1</v>
-      </c>
-      <c r="L116" t="n">
-        <v>3</v>
-      </c>
-      <c r="M116" t="n">
-        <v>3</v>
-      </c>
-      <c r="N116" t="n">
-        <v>2</v>
-      </c>
-      <c r="O116" t="n">
-        <v>2</v>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
       <c r="R116" t="n">
-        <v>256</v>
+        <v>73856</v>
       </c>
       <c r="S116" t="n">
-        <v>128</v>
-      </c>
-      <c r="T116" t="n">
-        <v>73856</v>
-      </c>
-      <c r="U116" t="n">
         <v>73856</v>
       </c>
     </row>
@@ -5119,31 +5109,31 @@
           <t>ReLU6: 3-97</t>
         </is>
       </c>
+      <c r="D117" t="n">
+        <v>128</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
       <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
         <v>128</v>
       </c>
-      <c r="G117" t="n">
-        <v>1</v>
-      </c>
       <c r="H117" t="n">
         <v>1</v>
       </c>
       <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="P117" t="n">
         <v>128</v>
       </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1</v>
-      </c>
-      <c r="R117" t="n">
+      <c r="Q117" t="n">
         <v>128</v>
       </c>
-      <c r="S117" t="n">
-        <v>128</v>
-      </c>
-      <c r="W117" t="n">
+      <c r="U117" t="n">
         <v>128</v>
       </c>
     </row>
@@ -5153,6 +5143,12 @@
           <t>PredictionHead: 2-19</t>
         </is>
       </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
       <c r="F118" t="n">
         <v>0</v>
       </c>
@@ -5165,16 +5161,10 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="R118" t="n">
-        <v>0</v>
-      </c>
-      <c r="S118" t="n">
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5184,23 +5174,29 @@
           <t>Conv2d: 3-98</t>
         </is>
       </c>
+      <c r="D119" t="n">
+        <v>512</v>
+      </c>
+      <c r="E119" t="n">
+        <v>19</v>
+      </c>
       <c r="F119" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G119" t="n">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="H119" t="n">
         <v>19</v>
       </c>
       <c r="I119" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J119" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L119" t="n">
         <v>1</v>
@@ -5209,28 +5205,22 @@
         <v>1</v>
       </c>
       <c r="N119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="Q119" t="n">
-        <v>0</v>
+        <v>87723</v>
       </c>
       <c r="R119" t="n">
-        <v>184832</v>
+        <v>124659</v>
       </c>
       <c r="S119" t="n">
-        <v>10830</v>
-      </c>
-      <c r="T119" t="n">
-        <v>15390</v>
-      </c>
-      <c r="U119" t="n">
-        <v>5555790</v>
+        <v>45001899</v>
       </c>
     </row>
     <row r="120">
@@ -5239,23 +5229,29 @@
           <t>Conv2d: 3-99</t>
         </is>
       </c>
+      <c r="D120" t="n">
+        <v>512</v>
+      </c>
+      <c r="E120" t="n">
+        <v>19</v>
+      </c>
       <c r="F120" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="G120" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H120" t="n">
         <v>19</v>
       </c>
       <c r="I120" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J120" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L120" t="n">
         <v>1</v>
@@ -5264,27 +5260,21 @@
         <v>1</v>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P120" t="n">
-        <v>0</v>
+        <v>184832</v>
       </c>
       <c r="Q120" t="n">
-        <v>0</v>
+        <v>4332</v>
       </c>
       <c r="R120" t="n">
-        <v>184832</v>
+        <v>6156</v>
       </c>
       <c r="S120" t="n">
-        <v>4332</v>
-      </c>
-      <c r="T120" t="n">
-        <v>6156</v>
-      </c>
-      <c r="U120" t="n">
         <v>2222316</v>
       </c>
     </row>
@@ -5294,6 +5284,12 @@
           <t>PredictionHead: 2-20</t>
         </is>
       </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
@@ -5306,16 +5302,10 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="R121" t="n">
-        <v>0</v>
-      </c>
-      <c r="S121" t="n">
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5325,23 +5315,29 @@
           <t>Conv2d: 3-100</t>
         </is>
       </c>
+      <c r="D122" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E122" t="n">
+        <v>10</v>
+      </c>
       <c r="F122" t="n">
-        <v>1024</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>10</v>
+        <v>486</v>
       </c>
       <c r="H122" t="n">
         <v>10</v>
       </c>
       <c r="I122" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J122" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K122" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L122" t="n">
         <v>1</v>
@@ -5350,28 +5346,22 @@
         <v>1</v>
       </c>
       <c r="N122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>0</v>
+        <v>102400</v>
       </c>
       <c r="Q122" t="n">
-        <v>0</v>
+        <v>48600</v>
       </c>
       <c r="R122" t="n">
-        <v>102400</v>
+        <v>498150</v>
       </c>
       <c r="S122" t="n">
-        <v>6000</v>
-      </c>
-      <c r="T122" t="n">
-        <v>61500</v>
-      </c>
-      <c r="U122" t="n">
-        <v>6150000</v>
+        <v>49815000</v>
       </c>
     </row>
     <row r="123">
@@ -5380,23 +5370,29 @@
           <t>Conv2d: 3-101</t>
         </is>
       </c>
+      <c r="D123" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E123" t="n">
+        <v>10</v>
+      </c>
       <c r="F123" t="n">
-        <v>1024</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="H123" t="n">
         <v>10</v>
       </c>
       <c r="I123" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J123" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L123" t="n">
         <v>1</v>
@@ -5405,27 +5401,21 @@
         <v>1</v>
       </c>
       <c r="N123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>0</v>
+        <v>102400</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="R123" t="n">
-        <v>102400</v>
+        <v>24600</v>
       </c>
       <c r="S123" t="n">
-        <v>2400</v>
-      </c>
-      <c r="T123" t="n">
-        <v>24600</v>
-      </c>
-      <c r="U123" t="n">
         <v>2460000</v>
       </c>
     </row>
@@ -5435,6 +5425,12 @@
           <t>PredictionHead: 2-21</t>
         </is>
       </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
       <c r="F124" t="n">
         <v>0</v>
       </c>
@@ -5447,16 +5443,10 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="R124" t="n">
-        <v>0</v>
-      </c>
-      <c r="S124" t="n">
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5466,23 +5456,29 @@
           <t>Conv2d: 3-102</t>
         </is>
       </c>
+      <c r="D125" t="n">
+        <v>512</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5</v>
+      </c>
       <c r="F125" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>486</v>
       </c>
       <c r="H125" t="n">
         <v>5</v>
       </c>
       <c r="I125" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="J125" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L125" t="n">
         <v>1</v>
@@ -5491,28 +5487,22 @@
         <v>1</v>
       </c>
       <c r="N125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="Q125" t="n">
-        <v>0</v>
+        <v>12150</v>
       </c>
       <c r="R125" t="n">
-        <v>12800</v>
+        <v>249318</v>
       </c>
       <c r="S125" t="n">
-        <v>1500</v>
-      </c>
-      <c r="T125" t="n">
-        <v>30780</v>
-      </c>
-      <c r="U125" t="n">
-        <v>769500</v>
+        <v>6232950</v>
       </c>
     </row>
     <row r="126">
@@ -5521,23 +5511,29 @@
           <t>Conv2d: 3-103</t>
         </is>
       </c>
+      <c r="D126" t="n">
+        <v>512</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5</v>
+      </c>
       <c r="F126" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="G126" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H126" t="n">
         <v>5</v>
       </c>
       <c r="I126" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L126" t="n">
         <v>1</v>
@@ -5546,27 +5542,21 @@
         <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>0</v>
+        <v>12800</v>
       </c>
       <c r="Q126" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="R126" t="n">
-        <v>12800</v>
+        <v>12312</v>
       </c>
       <c r="S126" t="n">
-        <v>600</v>
-      </c>
-      <c r="T126" t="n">
-        <v>12312</v>
-      </c>
-      <c r="U126" t="n">
         <v>307800</v>
       </c>
     </row>
@@ -5576,6 +5566,12 @@
           <t>PredictionHead: 2-22</t>
         </is>
       </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
       <c r="F127" t="n">
         <v>0</v>
       </c>
@@ -5588,16 +5584,10 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0</v>
-      </c>
-      <c r="S127" t="n">
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5607,23 +5597,29 @@
           <t>Conv2d: 3-104</t>
         </is>
       </c>
+      <c r="D128" t="n">
+        <v>256</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3</v>
+      </c>
       <c r="F128" t="n">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>3</v>
+        <v>486</v>
       </c>
       <c r="H128" t="n">
         <v>3</v>
       </c>
       <c r="I128" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="J128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L128" t="n">
         <v>1</v>
@@ -5632,28 +5628,22 @@
         <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>4374</v>
       </c>
       <c r="R128" t="n">
-        <v>2304</v>
+        <v>124902</v>
       </c>
       <c r="S128" t="n">
-        <v>540</v>
-      </c>
-      <c r="T128" t="n">
-        <v>15420</v>
-      </c>
-      <c r="U128" t="n">
-        <v>138780</v>
+        <v>1124118</v>
       </c>
     </row>
     <row r="129">
@@ -5662,23 +5652,29 @@
           <t>Conv2d: 3-105</t>
         </is>
       </c>
+      <c r="D129" t="n">
+        <v>256</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3</v>
+      </c>
       <c r="F129" t="n">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H129" t="n">
         <v>3</v>
       </c>
       <c r="I129" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L129" t="n">
         <v>1</v>
@@ -5687,27 +5683,21 @@
         <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="Q129" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="R129" t="n">
-        <v>2304</v>
+        <v>6168</v>
       </c>
       <c r="S129" t="n">
-        <v>216</v>
-      </c>
-      <c r="T129" t="n">
-        <v>6168</v>
-      </c>
-      <c r="U129" t="n">
         <v>55512</v>
       </c>
     </row>
@@ -5717,6 +5707,12 @@
           <t>PredictionHead: 2-23</t>
         </is>
       </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
       <c r="F130" t="n">
         <v>0</v>
       </c>
@@ -5729,16 +5725,10 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="R130" t="n">
-        <v>0</v>
-      </c>
-      <c r="S130" t="n">
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5748,23 +5738,29 @@
           <t>Conv2d: 3-106</t>
         </is>
       </c>
+      <c r="D131" t="n">
+        <v>256</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2</v>
+      </c>
       <c r="F131" t="n">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>486</v>
       </c>
       <c r="H131" t="n">
         <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L131" t="n">
         <v>1</v>
@@ -5773,28 +5769,22 @@
         <v>1</v>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P131" t="n">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="Q131" t="n">
-        <v>0</v>
+        <v>1944</v>
       </c>
       <c r="R131" t="n">
-        <v>1024</v>
+        <v>124902</v>
       </c>
       <c r="S131" t="n">
-        <v>240</v>
-      </c>
-      <c r="T131" t="n">
-        <v>15420</v>
-      </c>
-      <c r="U131" t="n">
-        <v>61680</v>
+        <v>499608</v>
       </c>
     </row>
     <row r="132">
@@ -5803,23 +5793,29 @@
           <t>Conv2d: 3-107</t>
         </is>
       </c>
+      <c r="D132" t="n">
+        <v>256</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2</v>
+      </c>
       <c r="F132" t="n">
-        <v>256</v>
+        <v>2</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H132" t="n">
         <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L132" t="n">
         <v>1</v>
@@ -5828,27 +5824,21 @@
         <v>1</v>
       </c>
       <c r="N132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="Q132" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="R132" t="n">
-        <v>1024</v>
+        <v>6168</v>
       </c>
       <c r="S132" t="n">
-        <v>96</v>
-      </c>
-      <c r="T132" t="n">
-        <v>6168</v>
-      </c>
-      <c r="U132" t="n">
         <v>24672</v>
       </c>
     </row>
@@ -5858,6 +5848,12 @@
           <t>PredictionHead: 2-24</t>
         </is>
       </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
       <c r="F133" t="n">
         <v>0</v>
       </c>
@@ -5870,16 +5866,10 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="R133" t="n">
-        <v>0</v>
-      </c>
-      <c r="S133" t="n">
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5889,53 +5879,53 @@
           <t>Conv2d: 3-108</t>
         </is>
       </c>
+      <c r="D134" t="n">
+        <v>128</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
       <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>486</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
         <v>128</v>
       </c>
-      <c r="G134" t="n">
-        <v>1</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>60</v>
-      </c>
-      <c r="J134" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" t="n">
-        <v>1</v>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="n">
-        <v>1</v>
-      </c>
-      <c r="O134" t="n">
-        <v>1</v>
-      </c>
-      <c r="P134" t="n">
-        <v>0</v>
-      </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="R134" t="n">
-        <v>128</v>
+        <v>62694</v>
       </c>
       <c r="S134" t="n">
-        <v>60</v>
-      </c>
-      <c r="T134" t="n">
-        <v>7740</v>
-      </c>
-      <c r="U134" t="n">
-        <v>7740</v>
+        <v>62694</v>
       </c>
     </row>
     <row r="135">
@@ -5944,67 +5934,67 @@
           <t>Conv2d: 3-109</t>
         </is>
       </c>
+      <c r="D135" t="n">
+        <v>128</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
       <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>24</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
         <v>128</v>
       </c>
-      <c r="G135" t="n">
-        <v>1</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
+      <c r="Q135" t="n">
         <v>24</v>
       </c>
-      <c r="J135" t="n">
-        <v>1</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1</v>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="n">
-        <v>1</v>
-      </c>
-      <c r="O135" t="n">
-        <v>1</v>
-      </c>
-      <c r="P135" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>0</v>
-      </c>
       <c r="R135" t="n">
-        <v>128</v>
+        <v>3096</v>
       </c>
       <c r="S135" t="n">
-        <v>24</v>
-      </c>
-      <c r="T135" t="n">
         <v>3096</v>
       </c>
-      <c r="U135" t="n">
-        <v>3096</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="S1:S135">
+  <conditionalFormatting sqref="Q1:Q135">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
       <formula>1440000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:T135">
+  <conditionalFormatting sqref="R1:R135">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
       <formula>1180160</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U135">
+  <conditionalFormatting sqref="S1:S135">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
       <formula>104857600</formula>
     </cfRule>
@@ -6044,7 +6034,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.653142</v>
+        <v>27.789249</v>
       </c>
     </row>
     <row r="3">
@@ -6054,7 +6044,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.611598</v>
+        <v>6.649973</v>
       </c>
     </row>
     <row r="4">
@@ -6064,7 +6054,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.134621718</v>
+        <v>1.224674497</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/torch/ssd_mobilenet.xlsx
+++ b/outputs/torch/ssd_mobilenet.xlsx
@@ -5184,7 +5184,7 @@
         <v>19</v>
       </c>
       <c r="G119" t="n">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="H119" t="n">
         <v>19</v>
@@ -5214,13 +5214,13 @@
         <v>184832</v>
       </c>
       <c r="Q119" t="n">
-        <v>87723</v>
+        <v>98553</v>
       </c>
       <c r="R119" t="n">
-        <v>124659</v>
+        <v>140049</v>
       </c>
       <c r="S119" t="n">
-        <v>45001899</v>
+        <v>50557689</v>
       </c>
     </row>
     <row r="120">
@@ -5325,7 +5325,7 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="H122" t="n">
         <v>10</v>
@@ -5355,13 +5355,13 @@
         <v>102400</v>
       </c>
       <c r="Q122" t="n">
-        <v>48600</v>
+        <v>54600</v>
       </c>
       <c r="R122" t="n">
-        <v>498150</v>
+        <v>559650</v>
       </c>
       <c r="S122" t="n">
-        <v>49815000</v>
+        <v>55965000</v>
       </c>
     </row>
     <row r="123">
@@ -5466,7 +5466,7 @@
         <v>5</v>
       </c>
       <c r="G125" t="n">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="H125" t="n">
         <v>5</v>
@@ -5496,13 +5496,13 @@
         <v>12800</v>
       </c>
       <c r="Q125" t="n">
-        <v>12150</v>
+        <v>13650</v>
       </c>
       <c r="R125" t="n">
-        <v>249318</v>
+        <v>280098</v>
       </c>
       <c r="S125" t="n">
-        <v>6232950</v>
+        <v>7002450</v>
       </c>
     </row>
     <row r="126">
@@ -5607,7 +5607,7 @@
         <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="H128" t="n">
         <v>3</v>
@@ -5637,13 +5637,13 @@
         <v>2304</v>
       </c>
       <c r="Q128" t="n">
-        <v>4374</v>
+        <v>4914</v>
       </c>
       <c r="R128" t="n">
-        <v>124902</v>
+        <v>140322</v>
       </c>
       <c r="S128" t="n">
-        <v>1124118</v>
+        <v>1262898</v>
       </c>
     </row>
     <row r="129">
@@ -5748,7 +5748,7 @@
         <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="H131" t="n">
         <v>2</v>
@@ -5778,13 +5778,13 @@
         <v>1024</v>
       </c>
       <c r="Q131" t="n">
-        <v>1944</v>
+        <v>2184</v>
       </c>
       <c r="R131" t="n">
-        <v>124902</v>
+        <v>140322</v>
       </c>
       <c r="S131" t="n">
-        <v>499608</v>
+        <v>561288</v>
       </c>
     </row>
     <row r="132">
@@ -5889,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="H134" t="n">
         <v>1</v>
@@ -5919,13 +5919,13 @@
         <v>128</v>
       </c>
       <c r="Q134" t="n">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="R134" t="n">
-        <v>62694</v>
+        <v>70434</v>
       </c>
       <c r="S134" t="n">
-        <v>62694</v>
+        <v>70434</v>
       </c>
     </row>
     <row r="135">
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.789249</v>
+        <v>27.808419</v>
       </c>
     </row>
     <row r="3">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.649973</v>
+        <v>6.796223</v>
       </c>
     </row>
     <row r="4">
@@ -6054,7 +6054,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.224674497</v>
+        <v>1.237357987</v>
       </c>
     </row>
   </sheetData>
